--- a/£FRAS.xlsx
+++ b/£FRAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9695075-E990-409A-A62B-56DC16467B51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BBD98D-EE9C-43ED-802A-EA7535361BF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DFC76227-194F-45DA-B2FC-C5CD2E3C1320}"/>
   </bookViews>
@@ -391,6 +391,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -400,12 +418,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,18 +425,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -862,15 +862,15 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>7.25</v>
+        <v>8.23</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="28"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="34"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
@@ -895,7 +895,7 @@
       </c>
       <c r="C8" s="13">
         <f>C6*C7</f>
-        <v>3461.73</v>
+        <v>3929.6604000000002</v>
       </c>
       <c r="D8" s="5"/>
       <c r="W8" s="17" t="s">
@@ -961,7 +961,7 @@
       </c>
       <c r="C12" s="14">
         <f>C8-C11</f>
-        <v>3461.73</v>
+        <v>3929.6604000000002</v>
       </c>
       <c r="D12" s="6"/>
       <c r="W12" s="17" t="s">
@@ -1015,10 +1015,10 @@
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="27"/>
       <c r="W16" s="17"/>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
@@ -1030,8 +1030,8 @@
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
       <c r="W17" s="17"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
@@ -1041,8 +1041,8 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="W18" s="17"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
@@ -1052,16 +1052,16 @@
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="W19" s="31" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="W19" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="33"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="37"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="W20" s="17" t="s">
@@ -1102,10 +1102,10 @@
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="27"/>
       <c r="W23" s="17" t="s">
         <v>25</v>
       </c>
@@ -1119,10 +1119,10 @@
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="26">
         <v>1982</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="27"/>
       <c r="W24" s="17"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
@@ -1134,8 +1134,8 @@
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
       <c r="W25" s="17"/>
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
@@ -1147,29 +1147,29 @@
       <c r="B26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32" s="23" t="s">
@@ -1234,6 +1234,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="W6:AB6"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -1243,15 +1252,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="W6:AB6"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{424553EF-2E25-459C-8DED-FBECC4AAF054}"/>

--- a/£FRAS.xlsx
+++ b/£FRAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BBD98D-EE9C-43ED-802A-EA7535361BF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC7D39D-5629-4CCC-994A-D75B5594A4AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DFC76227-194F-45DA-B2FC-C5CD2E3C1320}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{DFC76227-194F-45DA-B2FC-C5CD2E3C1320}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
   <si>
     <t>£FRAS</t>
   </si>
@@ -82,9 +82,6 @@
     <t>IR</t>
   </si>
   <si>
-    <t>Ratios</t>
-  </si>
-  <si>
     <t>Frasers Group Plc.</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>P/E</t>
   </si>
   <si>
-    <t>ROCE</t>
-  </si>
-  <si>
     <t>P/B</t>
   </si>
   <si>
@@ -170,16 +164,309 @@
   </si>
   <si>
     <t>Brands</t>
+  </si>
+  <si>
+    <t>H122</t>
+  </si>
+  <si>
+    <t>H222</t>
+  </si>
+  <si>
+    <t>H221</t>
+  </si>
+  <si>
+    <t>H121</t>
+  </si>
+  <si>
+    <t>H220</t>
+  </si>
+  <si>
+    <t>H120</t>
+  </si>
+  <si>
+    <t>H219</t>
+  </si>
+  <si>
+    <t>H119</t>
+  </si>
+  <si>
+    <t>H218</t>
+  </si>
+  <si>
+    <t>H118</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>FY33</t>
+  </si>
+  <si>
+    <t>Key Events</t>
+  </si>
+  <si>
+    <t>Chris Wootton</t>
+  </si>
+  <si>
+    <t>Exec. Dir</t>
+  </si>
+  <si>
+    <t>Michael Murray</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>David Al-Mudallal</t>
+  </si>
+  <si>
+    <t>Ratios &amp; Metrics</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Credit Account Interest</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Impairment Losses on Credit</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Selling, Distribution &amp; Admin</t>
+  </si>
+  <si>
+    <t>Other Operating Income</t>
+  </si>
+  <si>
+    <t>Property Related Impairments</t>
+  </si>
+  <si>
+    <t>Exceptional Items</t>
+  </si>
+  <si>
+    <t>Profit on Sale of Property</t>
+  </si>
+  <si>
+    <t>Operating Profit</t>
+  </si>
+  <si>
+    <t>Investment Income</t>
+  </si>
+  <si>
+    <t>Investment Costs</t>
+  </si>
+  <si>
+    <t>Finance Income</t>
+  </si>
+  <si>
+    <t>Finance Costs</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Revenue H/H</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxes </t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>H123</t>
+  </si>
+  <si>
+    <t>H223</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Investment Properties</t>
+  </si>
+  <si>
+    <t>Intangible Assets</t>
+  </si>
+  <si>
+    <t>Long-Term Financial Assets</t>
+  </si>
+  <si>
+    <t>Retirement Benefit Surplus</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Total NCA</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/R</t>
+  </si>
+  <si>
+    <t>Derivative Financial Assets</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Lease Liability</t>
+  </si>
+  <si>
+    <t>Borrowings</t>
+  </si>
+  <si>
+    <t>Retirement Benefit Obligations</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Total NCL</t>
+  </si>
+  <si>
+    <t>Derivative Financial Liability</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/P</t>
+  </si>
+  <si>
+    <t>Current Taxes</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>S/E+L</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>Inventory Y/Y</t>
+  </si>
+  <si>
+    <t>Inventory H/H</t>
+  </si>
+  <si>
+    <t>Inventory/Revenue</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>EV/S</t>
+  </si>
+  <si>
+    <t>Held For Sale</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>Share of Loss of Associated Undertakings</t>
+  </si>
+  <si>
+    <t>Fair Value Gain on Acquisition</t>
+  </si>
+  <si>
+    <t>FY17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +509,44 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,14 +677,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,6 +709,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,12 +724,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,23 +760,79 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -450,15 +857,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -488,7 +895,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2305050" y="104775"/>
+          <a:off x="1981200" y="133350"/>
           <a:ext cx="1219200" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -506,6 +913,111 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6843C6-A5D8-4E77-8E34-072EFC67618A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13030200" y="9525"/>
+          <a:ext cx="0" cy="13896975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDB36B2-C2FE-414D-8E8E-E421583C6446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="0"/>
+          <a:ext cx="0" cy="13992225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -808,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCED253-2028-433E-A998-19555E53110C}">
-  <dimension ref="A2:AB40"/>
+  <dimension ref="A2:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -827,18 +1339,8 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="W4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="25"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
@@ -846,152 +1348,309 @@
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
-      <c r="W5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="16"/>
+      <c r="G5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="25"/>
+      <c r="W5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="25"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>8.23</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="34"/>
+      <c r="D6" s="46"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="17"/>
+      <c r="W6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="14"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13">
-        <v>477.48</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="W7" s="17" t="s">
+      <c r="C7" s="11">
+        <f>'Financial Model'!U26</f>
+        <v>471.97528199999999</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="17"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="28"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11">
+        <f>C6*C7</f>
+        <v>3884.3565708599999</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="17"/>
+      <c r="W8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="17"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <f>'Financial Model'!U72</f>
+        <v>659.9</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="17"/>
+      <c r="W9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="19"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13">
-        <f>C6*C7</f>
-        <v>3929.6604000000002</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="W8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="19"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="5"/>
-      <c r="W9" s="17" t="s">
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="17"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11">
+        <f>'Financial Model'!U73</f>
+        <v>935.1</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17"/>
+      <c r="W10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="17"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11">
+        <f>C9-C10</f>
+        <v>-275.20000000000005</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="17"/>
+      <c r="W11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="19"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
-      <c r="W10" s="17" t="s">
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="17"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12">
+        <f>C8-C11</f>
+        <v>4159.5565708599997</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="17"/>
+      <c r="W12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="19"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13">
-        <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="W11" s="17" t="s">
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="17"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G13" s="44"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="17"/>
+      <c r="W13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="19"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="14">
-        <f>C8-C11</f>
-        <v>3929.6604000000002</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="W12" s="17" t="s">
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="17"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G14" s="44"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="17"/>
+      <c r="W14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="19"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="W13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="19"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="W14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="19"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
@@ -999,89 +1658,197 @@
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
-      <c r="W15" s="17" t="s">
+      <c r="G15" s="44"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="17"/>
+      <c r="W15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="17"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="19"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="D16" s="30"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="17"/>
+      <c r="W16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="17"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="17"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="17"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="19"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="19"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="19"/>
+      <c r="C18" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="17"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="17"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="W19" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="37"/>
+      <c r="B19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="17"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="17"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="W20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="19"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="17"/>
+      <c r="W20" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="33"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="W21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="19"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17"/>
+      <c r="W21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="17"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
@@ -1089,172 +1856,427 @@
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
-      <c r="W22" s="17" t="s">
+      <c r="G22" s="44"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="17"/>
+      <c r="W22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="17"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="17"/>
+      <c r="W23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="17"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="29">
+        <v>1982</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="17"/>
+      <c r="W24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="17"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B25" s="22"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="17"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="17"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="17"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="64">
+        <f>'Financial Model'!U46</f>
+        <v>1277.5999999999999</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="72">
+        <v>44765</v>
+      </c>
+      <c r="G29" s="44"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="19"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="W23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="19"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="26">
-        <v>1982</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="19"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="19"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="31"/>
+      <c r="D30" s="37"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="G31" s="44"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="17"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B32" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
+      <c r="G32" s="44"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="67">
+        <f>C8/'Financial Model'!U6</f>
+        <v>0.8083484009031694</v>
+      </c>
+      <c r="D34" s="68"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
+      <c r="C35" s="67">
+        <f>C6/'Financial Model'!U25</f>
+        <v>15.120111213935388</v>
+      </c>
+      <c r="D35" s="68"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="67">
+        <f>C12/'Financial Model'!U6</f>
+        <v>0.8656184985037354</v>
+      </c>
+      <c r="D36" s="68"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="19"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
+      <c r="C37" s="67">
+        <f>C6/'Financial Model'!U70</f>
+        <v>2.9683299486932606</v>
+      </c>
+      <c r="D37" s="68"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="9"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="W6:AB6"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B32:D32"/>
+  <mergeCells count="27">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="G5:T5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{424553EF-2E25-459C-8DED-FBECC4AAF054}"/>
+    <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{424553EF-2E25-459C-8DED-FBECC4AAF054}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1263,17 +2285,1617 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315486F4-C59C-4E99-A8FF-A75A76B71134}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="43"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="43"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="43"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="43"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="43"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="43"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:32" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="39"/>
+      <c r="D2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="R2" s="58">
+        <v>43583</v>
+      </c>
+      <c r="S2" s="58">
+        <v>43947</v>
+      </c>
+      <c r="T2" s="58">
+        <v>44311</v>
+      </c>
+      <c r="U2" s="58">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="39"/>
+      <c r="D3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="U3" s="73">
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="R4" s="54">
+        <v>3701.9</v>
+      </c>
+      <c r="S4" s="54">
+        <v>3957.4</v>
+      </c>
+      <c r="T4" s="49">
+        <v>3625.3</v>
+      </c>
+      <c r="U4" s="54">
+        <v>4787.1000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="R5" s="54">
+        <v>0</v>
+      </c>
+      <c r="S5" s="54">
+        <v>0</v>
+      </c>
+      <c r="T5" s="61">
+        <v>0</v>
+      </c>
+      <c r="U5" s="54">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="R6" s="55">
+        <f t="shared" ref="R6:S6" si="0">R4+R5</f>
+        <v>3701.9</v>
+      </c>
+      <c r="S6" s="55">
+        <f t="shared" si="0"/>
+        <v>3957.4</v>
+      </c>
+      <c r="T6" s="55">
+        <f>T4+T5</f>
+        <v>3625.3</v>
+      </c>
+      <c r="U6" s="55">
+        <f>U4+U5</f>
+        <v>4805.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="56">
+        <v>2118.4</v>
+      </c>
+      <c r="S7" s="56">
+        <v>2294.8000000000002</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2094.5</v>
+      </c>
+      <c r="U7" s="56">
+        <v>2703.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="56">
+        <v>0</v>
+      </c>
+      <c r="S8" s="56">
+        <v>0</v>
+      </c>
+      <c r="T8" s="62">
+        <v>0</v>
+      </c>
+      <c r="U8" s="56">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="R9" s="55">
+        <f t="shared" ref="R9:S9" si="1">R6-R7-R8</f>
+        <v>1583.5</v>
+      </c>
+      <c r="S9" s="55">
+        <f t="shared" si="1"/>
+        <v>1662.6</v>
+      </c>
+      <c r="T9" s="55">
+        <f>T6-T7-T8</f>
+        <v>1530.8000000000002</v>
+      </c>
+      <c r="U9" s="55">
+        <f>U6-U7-U8</f>
+        <v>2088.6999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="56">
+        <v>1413.8</v>
+      </c>
+      <c r="S10" s="56">
+        <v>1564.3</v>
+      </c>
+      <c r="T10" s="56">
+        <v>1319</v>
+      </c>
+      <c r="U10" s="56">
+        <v>1588.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="56">
+        <v>23.4</v>
+      </c>
+      <c r="S11" s="56">
+        <v>32.5</v>
+      </c>
+      <c r="T11" s="56">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="U11" s="56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="56">
+        <v>0</v>
+      </c>
+      <c r="S12" s="56">
+        <v>0</v>
+      </c>
+      <c r="T12" s="56">
+        <v>317</v>
+      </c>
+      <c r="U12" s="56">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" s="56">
+        <v>41</v>
+      </c>
+      <c r="S13" s="56">
+        <v>13.1</v>
+      </c>
+      <c r="T13" s="56">
+        <v>1.6</v>
+      </c>
+      <c r="U13" s="56">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14" s="56">
+        <v>8.4</v>
+      </c>
+      <c r="S14" s="56">
+        <v>54.2</v>
+      </c>
+      <c r="T14" s="56">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="U14" s="56">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="R15" s="55">
+        <f>R9-R10+R11-R12-R13+R14</f>
+        <v>160.50000000000006</v>
+      </c>
+      <c r="S15" s="55">
+        <f>S9-S10+S11-S12-S13+S14</f>
+        <v>171.89999999999998</v>
+      </c>
+      <c r="T15" s="55">
+        <f>T9-T10+T11-T12-T13+T14</f>
+        <v>-60.299999999999798</v>
+      </c>
+      <c r="U15" s="55">
+        <f>U9-U10+U11-U12-U13+U14</f>
+        <v>330.39999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R16" s="56">
+        <v>15</v>
+      </c>
+      <c r="S16" s="56">
+        <v>15.2</v>
+      </c>
+      <c r="T16" s="56">
+        <v>103.7</v>
+      </c>
+      <c r="U16" s="56">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="56">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="S17" s="56">
+        <v>49.8</v>
+      </c>
+      <c r="T17" s="56">
+        <v>7.7</v>
+      </c>
+      <c r="U17" s="56">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R18" s="56">
+        <v>40</v>
+      </c>
+      <c r="S18" s="56">
+        <v>31</v>
+      </c>
+      <c r="T18" s="56">
+        <v>9</v>
+      </c>
+      <c r="U18" s="56">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R19" s="56">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="S19" s="56">
+        <v>29.3</v>
+      </c>
+      <c r="T19" s="56">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="U19" s="56">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R20" s="56">
+        <v>8.6</v>
+      </c>
+      <c r="S20" s="56">
+        <v>15.9</v>
+      </c>
+      <c r="T20" s="56">
+        <v>0</v>
+      </c>
+      <c r="U20" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R21" s="56">
+        <v>0</v>
+      </c>
+      <c r="S21" s="56">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="T21" s="56">
+        <v>0</v>
+      </c>
+      <c r="U21" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R22" s="56">
+        <f>R15+R16-R17+R18-R19-R20+R21</f>
+        <v>179.20000000000005</v>
+      </c>
+      <c r="S22" s="56">
+        <f t="shared" ref="S22:U22" si="2">S15+S16-S17+S18-S19-S20+S21</f>
+        <v>143.49999999999994</v>
+      </c>
+      <c r="T22" s="56">
+        <f t="shared" si="2"/>
+        <v>8.500000000000199</v>
+      </c>
+      <c r="U22" s="56">
+        <f t="shared" si="2"/>
+        <v>335.59999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="1">
+        <v>63.2</v>
+      </c>
+      <c r="S23" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="T23" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="U23" s="56">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="R24" s="55">
+        <f t="shared" ref="R24:S24" si="3">R22-R23</f>
+        <v>116.00000000000004</v>
+      </c>
+      <c r="S24" s="55">
+        <f t="shared" si="3"/>
+        <v>100.99999999999994</v>
+      </c>
+      <c r="T24" s="55">
+        <f>T22-T23</f>
+        <v>-77.999999999999801</v>
+      </c>
+      <c r="U24" s="55">
+        <f>U22-U23</f>
+        <v>256.89999999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R25" s="63">
+        <f t="shared" ref="R25:S25" si="4">R24/R26</f>
+        <v>0.22330523722238971</v>
+      </c>
+      <c r="S25" s="63">
+        <f t="shared" si="4"/>
+        <v>0.19967305415495001</v>
+      </c>
+      <c r="T25" s="63">
+        <f>T24/T26</f>
+        <v>-0.15539232866443295</v>
+      </c>
+      <c r="U25" s="63">
+        <f>U24/U26</f>
+        <v>0.54430816569754159</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="56">
+        <v>519.46833600000002</v>
+      </c>
+      <c r="S26" s="56">
+        <v>505.82688999999999</v>
+      </c>
+      <c r="T26" s="56">
+        <v>501.95528100000001</v>
+      </c>
+      <c r="U26" s="56">
+        <v>471.97528199999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="59">
+        <f t="shared" ref="S28:U28" si="5">S6/R6-1</f>
+        <v>6.9018612064075224E-2</v>
+      </c>
+      <c r="T28" s="59">
+        <f t="shared" si="5"/>
+        <v>-8.3918734522666405E-2</v>
+      </c>
+      <c r="U28" s="59">
+        <f>U6/T6-1</f>
+        <v>0.3254903042506827</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="Q29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="S29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U29" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R31" s="57">
+        <f t="shared" ref="R31:T31" si="6">R9/R6</f>
+        <v>0.42775331586482618</v>
+      </c>
+      <c r="S31" s="57">
+        <f t="shared" si="6"/>
+        <v>0.42012432405114464</v>
+      </c>
+      <c r="T31" s="57">
+        <f>T9/T6</f>
+        <v>0.42225470995503822</v>
+      </c>
+      <c r="U31" s="57">
+        <f>U9/U6</f>
+        <v>0.43466588974673792</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R32" s="57">
+        <f t="shared" ref="R32:T32" si="7">R15/R6</f>
+        <v>4.3356114427726314E-2</v>
+      </c>
+      <c r="S32" s="57">
+        <f t="shared" si="7"/>
+        <v>4.343761055238287E-2</v>
+      </c>
+      <c r="T32" s="57">
+        <f>T15/T6</f>
+        <v>-1.6633106225691609E-2</v>
+      </c>
+      <c r="U32" s="57">
+        <f>U15/U6</f>
+        <v>6.8757413689051639E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R33" s="57">
+        <f t="shared" ref="R33:T33" si="8">R24/R6</f>
+        <v>3.1335260271752353E-2</v>
+      </c>
+      <c r="S33" s="57">
+        <f t="shared" si="8"/>
+        <v>2.552180724718248E-2</v>
+      </c>
+      <c r="T33" s="57">
+        <f>T24/T6</f>
+        <v>-2.1515460789451851E-2</v>
+      </c>
+      <c r="U33" s="57">
+        <f>U24/U6</f>
+        <v>5.3461802592970245E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R34" s="57">
+        <f t="shared" ref="R34:T34" si="9">R23/R22</f>
+        <v>0.35267857142857134</v>
+      </c>
+      <c r="S34" s="57">
+        <f t="shared" si="9"/>
+        <v>0.2961672473867597</v>
+      </c>
+      <c r="T34" s="57">
+        <f>T23/T22</f>
+        <v>10.176470588235055</v>
+      </c>
+      <c r="U34" s="57">
+        <f>U23/U22</f>
+        <v>0.2345053635280096</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B38" s="53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R39" s="56">
+        <v>823.2</v>
+      </c>
+      <c r="S39" s="56">
+        <v>1347.6</v>
+      </c>
+      <c r="T39" s="56">
+        <v>1164.9000000000001</v>
+      </c>
+      <c r="U39" s="56">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R40" s="56">
+        <v>22.2</v>
+      </c>
+      <c r="S40" s="56">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="T40" s="56">
+        <v>14.1</v>
+      </c>
+      <c r="U40" s="56">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R41" s="56">
+        <v>153</v>
+      </c>
+      <c r="S41" s="56">
+        <v>143.4</v>
+      </c>
+      <c r="T41" s="56">
+        <v>120.5</v>
+      </c>
+      <c r="U41" s="56">
+        <v>120.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="R42" s="55">
+        <v>11</v>
+      </c>
+      <c r="S42" s="55">
+        <v>0</v>
+      </c>
+      <c r="T42" s="55">
+        <v>263.3</v>
+      </c>
+      <c r="U42" s="55">
+        <v>206.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R43" s="56">
+        <v>84.6</v>
+      </c>
+      <c r="S43" s="56">
+        <v>83.8</v>
+      </c>
+      <c r="T43" s="56">
+        <v>0</v>
+      </c>
+      <c r="U43" s="56">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R44" s="56">
+        <v>23.7</v>
+      </c>
+      <c r="S44" s="56">
+        <v>49.9</v>
+      </c>
+      <c r="T44" s="56">
+        <v>66.8</v>
+      </c>
+      <c r="U44" s="56">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R45" s="56">
+        <f>SUM(R39:R44)</f>
+        <v>1117.7</v>
+      </c>
+      <c r="S45" s="56">
+        <f>SUM(S39:S44)</f>
+        <v>1643.6000000000001</v>
+      </c>
+      <c r="T45" s="56">
+        <f>SUM(T39:T44)</f>
+        <v>1629.6</v>
+      </c>
+      <c r="U45" s="56">
+        <f>SUM(U39:U44)</f>
+        <v>1530.3999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="R46" s="55">
+        <v>978.4</v>
+      </c>
+      <c r="S46" s="55">
+        <v>1198.3</v>
+      </c>
+      <c r="T46" s="55">
+        <v>1096.5999999999999</v>
+      </c>
+      <c r="U46" s="55">
+        <v>1277.5999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R47" s="56">
+        <v>432.5</v>
+      </c>
+      <c r="S47" s="56">
+        <v>414.2</v>
+      </c>
+      <c r="T47" s="56">
+        <v>546.5</v>
+      </c>
+      <c r="U47" s="56">
+        <v>841.4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="R48" s="55">
+        <v>104.2</v>
+      </c>
+      <c r="S48" s="55">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="T48" s="55">
+        <v>55.4</v>
+      </c>
+      <c r="U48" s="55">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="R49" s="55">
+        <v>448</v>
+      </c>
+      <c r="S49" s="55">
+        <v>534</v>
+      </c>
+      <c r="T49" s="55">
+        <v>457</v>
+      </c>
+      <c r="U49" s="55">
+        <v>336.8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R50" s="56">
+        <v>68</v>
+      </c>
+      <c r="S50" s="56">
+        <v>0</v>
+      </c>
+      <c r="T50" s="56">
+        <v>0</v>
+      </c>
+      <c r="U50" s="56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R51" s="56">
+        <f t="shared" ref="R51:S51" si="10">R45+SUM(R46:R50)</f>
+        <v>3148.8</v>
+      </c>
+      <c r="S51" s="56">
+        <f t="shared" si="10"/>
+        <v>3868.2</v>
+      </c>
+      <c r="T51" s="56">
+        <f>T45+SUM(T46:T50)</f>
+        <v>3785.1</v>
+      </c>
+      <c r="U51" s="56">
+        <f>U45+SUM(U46:U50)</f>
+        <v>4142.7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U52" s="56"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R53" s="56">
+        <v>0</v>
+      </c>
+      <c r="S53" s="56">
+        <v>476.2</v>
+      </c>
+      <c r="T53" s="1">
+        <v>534.20000000000005</v>
+      </c>
+      <c r="U53" s="56">
+        <v>503.6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="R54" s="55">
+        <v>826.5</v>
+      </c>
+      <c r="S54" s="55">
+        <v>900</v>
+      </c>
+      <c r="T54" s="3">
+        <v>705.9</v>
+      </c>
+      <c r="U54" s="55">
+        <v>827.9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R55" s="56">
+        <v>1.9</v>
+      </c>
+      <c r="S55" s="56">
+        <v>1.9</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="U55" s="56">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R56" s="56">
+        <v>29</v>
+      </c>
+      <c r="S56" s="56">
+        <v>25.6</v>
+      </c>
+      <c r="T56" s="1">
+        <v>27</v>
+      </c>
+      <c r="U56" s="56">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R57" s="56">
+        <v>440.5</v>
+      </c>
+      <c r="S57" s="56">
+        <v>336</v>
+      </c>
+      <c r="T57" s="1">
+        <v>361.2</v>
+      </c>
+      <c r="U57" s="56">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R58" s="56">
+        <f>SUM(R53:R57)</f>
+        <v>1297.9000000000001</v>
+      </c>
+      <c r="S58" s="56">
+        <f>SUM(S53:S57)</f>
+        <v>1739.7</v>
+      </c>
+      <c r="T58" s="56">
+        <f>SUM(T53:T57)</f>
+        <v>1630.2</v>
+      </c>
+      <c r="U58" s="56">
+        <f>SUM(U53:U57)</f>
+        <v>1806.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="R59" s="55">
+        <v>16.3</v>
+      </c>
+      <c r="S59" s="55">
+        <v>44.2</v>
+      </c>
+      <c r="T59" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="U59" s="55">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R60" s="56">
+        <v>541.1</v>
+      </c>
+      <c r="S60" s="56">
+        <v>602.5</v>
+      </c>
+      <c r="T60" s="1">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="U60" s="56">
+        <v>729.8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R61" s="56">
+        <v>0</v>
+      </c>
+      <c r="S61" s="56">
+        <v>147.9</v>
+      </c>
+      <c r="T61" s="1">
+        <v>188.5</v>
+      </c>
+      <c r="U61" s="56">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R62" s="56">
+        <v>41.1</v>
+      </c>
+      <c r="S62" s="56">
+        <v>53.6</v>
+      </c>
+      <c r="T62" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="U62" s="56">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R63" s="56">
+        <v>0</v>
+      </c>
+      <c r="S63" s="56">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="56">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R64" s="56">
+        <f t="shared" ref="R64:S64" si="11">R58+SUM(R59:R63)</f>
+        <v>1896.4</v>
+      </c>
+      <c r="S64" s="56">
+        <f t="shared" si="11"/>
+        <v>2587.9</v>
+      </c>
+      <c r="T64" s="56">
+        <f>T58+SUM(T59:T63)</f>
+        <v>2574.1</v>
+      </c>
+      <c r="U64" s="56">
+        <f>U58+SUM(U59:U63)</f>
+        <v>2834.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R66" s="56">
+        <v>1252.4000000000001</v>
+      </c>
+      <c r="S66" s="56">
+        <v>1280.3</v>
+      </c>
+      <c r="T66" s="56">
+        <v>1211</v>
+      </c>
+      <c r="U66" s="56">
+        <v>1308.5999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R67" s="56">
+        <f t="shared" ref="R67:S67" si="12">R66+R64</f>
+        <v>3148.8</v>
+      </c>
+      <c r="S67" s="56">
+        <f t="shared" si="12"/>
+        <v>3868.2</v>
+      </c>
+      <c r="T67" s="56">
+        <f>T66+T64</f>
+        <v>3785.1</v>
+      </c>
+      <c r="U67" s="56">
+        <f>U66+U64</f>
+        <v>4142.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R69" s="56">
+        <f t="shared" ref="R69:T69" si="13">R51-R64</f>
+        <v>1252.4000000000001</v>
+      </c>
+      <c r="S69" s="56">
+        <f t="shared" si="13"/>
+        <v>1280.2999999999997</v>
+      </c>
+      <c r="T69" s="56">
+        <f t="shared" ref="T69:U69" si="14">T51-T64</f>
+        <v>1211</v>
+      </c>
+      <c r="U69" s="56">
+        <f>U51-U64</f>
+        <v>1308.5999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R70" s="1">
+        <f t="shared" ref="R70" si="15">R69/R26</f>
+        <v>2.4109265439424203</v>
+      </c>
+      <c r="S70" s="1">
+        <f t="shared" ref="S70" si="16">S69/S26</f>
+        <v>2.5311030815305209</v>
+      </c>
+      <c r="T70" s="1">
+        <f t="shared" ref="T70" si="17">T69/T26</f>
+        <v>2.4125655129824204</v>
+      </c>
+      <c r="U70" s="1">
+        <f>U69/U26</f>
+        <v>2.772602824569105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="R72" s="49">
+        <f t="shared" ref="R72:T72" si="18">R48+R49+R42</f>
+        <v>563.20000000000005</v>
+      </c>
+      <c r="S72" s="49">
+        <f t="shared" si="18"/>
+        <v>612.1</v>
+      </c>
+      <c r="T72" s="49">
+        <f t="shared" ref="T72:U72" si="19">T48+T49+T42</f>
+        <v>775.7</v>
+      </c>
+      <c r="U72" s="49">
+        <f>U48+U49+U42</f>
+        <v>659.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="R73" s="49">
+        <f t="shared" ref="R73:T73" si="20">R54+R59</f>
+        <v>842.8</v>
+      </c>
+      <c r="S73" s="49">
+        <f t="shared" si="20"/>
+        <v>944.2</v>
+      </c>
+      <c r="T73" s="49">
+        <f t="shared" ref="T73:U73" si="21">T54+T59</f>
+        <v>725.1</v>
+      </c>
+      <c r="U73" s="49">
+        <f>U54+U59</f>
+        <v>935.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" ref="R74" si="22">R72-R73</f>
+        <v>-279.59999999999991</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" ref="S74" si="23">S72-S73</f>
+        <v>-332.1</v>
+      </c>
+      <c r="T74" s="1">
+        <f t="shared" ref="T74" si="24">T72-T73</f>
+        <v>50.600000000000023</v>
+      </c>
+      <c r="U74" s="1">
+        <f>U72-U73</f>
+        <v>-275.20000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="S76" s="59">
+        <f t="shared" ref="S76:U76" si="25">S46/R46-1</f>
+        <v>0.2247547015535567</v>
+      </c>
+      <c r="T76" s="59">
+        <f t="shared" si="25"/>
+        <v>-8.4870232829842296E-2</v>
+      </c>
+      <c r="U76" s="59">
+        <f>U46/T46-1</f>
+        <v>0.16505562648185301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R77" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="S77" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T77" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U77" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78" s="69">
+        <f>AVERAGE(R78:U78)</f>
+        <v>0.28386373514389107</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R78" s="57">
+        <f t="shared" ref="R78:U78" si="26">R46/R6</f>
+        <v>0.26429671249898701</v>
+      </c>
+      <c r="S78" s="57">
+        <f t="shared" si="26"/>
+        <v>0.30279981806236417</v>
+      </c>
+      <c r="T78" s="57">
+        <f t="shared" si="26"/>
+        <v>0.30248531156042252</v>
+      </c>
+      <c r="U78" s="57">
+        <f>U46/U6</f>
+        <v>0.26587309845379059</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R80" s="71">
+        <v>2.9780000000000002</v>
+      </c>
+      <c r="S80" s="71">
+        <v>2.6</v>
+      </c>
+      <c r="T80" s="71">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="U80" s="1">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="56">
+        <f t="shared" ref="R81:T81" si="27">R80*R26</f>
+        <v>1546.9767046080001</v>
+      </c>
+      <c r="S81" s="56">
+        <f t="shared" si="27"/>
+        <v>1315.1499140000001</v>
+      </c>
+      <c r="T81" s="56">
+        <f t="shared" si="27"/>
+        <v>2587.5794735550003</v>
+      </c>
+      <c r="U81" s="56">
+        <f>U80*U26</f>
+        <v>3204.71216478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R82" s="56">
+        <f t="shared" ref="R82:T82" si="28">R81-R74</f>
+        <v>1826.576704608</v>
+      </c>
+      <c r="S82" s="56">
+        <f t="shared" si="28"/>
+        <v>1647.249914</v>
+      </c>
+      <c r="T82" s="56">
+        <f t="shared" si="28"/>
+        <v>2536.9794735550004</v>
+      </c>
+      <c r="U82" s="56">
+        <f>U81-U74</f>
+        <v>3479.9121647800002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A84" s="70">
+        <f>AVERAGE(R84:U84)</f>
+        <v>1.7120304481761268</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R84" s="66">
+        <f t="shared" ref="R84:U84" si="29">R80/R70</f>
+        <v>1.2352097609453849</v>
+      </c>
+      <c r="S84" s="66">
+        <f t="shared" si="29"/>
+        <v>1.0272201155979068</v>
+      </c>
+      <c r="T84" s="66">
+        <f t="shared" si="29"/>
+        <v>2.136729540507845</v>
+      </c>
+      <c r="U84" s="66">
+        <f>U80/U70</f>
+        <v>2.4489623756533705</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A85" s="70">
+        <f>AVERAGE(R85:U85)</f>
+        <v>0.53272048080151513</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R85" s="66">
+        <f t="shared" ref="R85:U85" si="30">R81/R6</f>
+        <v>0.4178872213209433</v>
+      </c>
+      <c r="S85" s="66">
+        <f t="shared" si="30"/>
+        <v>0.33232675847778848</v>
+      </c>
+      <c r="T85" s="66">
+        <f t="shared" si="30"/>
+        <v>0.71375595772901557</v>
+      </c>
+      <c r="U85" s="66">
+        <f>U81/U6</f>
+        <v>0.66691198567831345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A86" s="70">
+        <f>AVERAGE(R86:U86)</f>
+        <v>0.58341051806433109</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R86" s="66">
+        <f t="shared" ref="R86:U86" si="31">R82/R6</f>
+        <v>0.49341600383802908</v>
+      </c>
+      <c r="S86" s="66">
+        <f t="shared" si="31"/>
+        <v>0.41624549300045482</v>
+      </c>
+      <c r="T86" s="66">
+        <f t="shared" si="31"/>
+        <v>0.69979849213996093</v>
+      </c>
+      <c r="U86" s="66">
+        <f>U82/U6</f>
+        <v>0.72418208327887956</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A87" s="70">
+        <f>AVERAGE(R87:U87)</f>
+        <v>12.943947800523622</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R87" s="66">
+        <f t="shared" ref="R87:U87" si="32">R80/R25</f>
+        <v>13.336006074206892</v>
+      </c>
+      <c r="S87" s="66">
+        <f t="shared" si="32"/>
+        <v>13.02128627722773</v>
+      </c>
+      <c r="T87" s="66"/>
+      <c r="U87" s="66">
+        <f>U80/U25</f>
+        <v>12.474551050136244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" r:id="rId1" xr:uid="{CD21117C-C7AB-4203-96F8-244D1457B8B2}"/>
+    <hyperlink ref="S1" r:id="rId2" xr:uid="{E5E543FA-C3BB-4452-BA10-40FDCD03DF26}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/£FRAS.xlsx
+++ b/£FRAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC7D39D-5629-4CCC-994A-D75B5594A4AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C1DAD-FB84-9041-B9BA-703120E8A184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{DFC76227-194F-45DA-B2FC-C5CD2E3C1320}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30380" windowHeight="18900" xr2:uid="{DFC76227-194F-45DA-B2FC-C5CD2E3C1320}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
   <si>
     <t>£FRAS</t>
   </si>
@@ -455,6 +465,9 @@
   </si>
   <si>
     <t>FY17</t>
+  </si>
+  <si>
+    <t>ROCE</t>
   </si>
 </sst>
 </file>
@@ -463,8 +476,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -677,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -715,51 +728,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -805,26 +773,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -833,6 +789,66 @@
     </xf>
     <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1322,66 +1338,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCED253-2028-433E-A998-19555E53110C}">
   <dimension ref="A2:AB41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="G5" s="23" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="G5" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="25"/>
-      <c r="W5" s="23" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="63"/>
+      <c r="W5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="25"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="63"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>8.23</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="G6" s="44"/>
+      <c r="D6" s="31"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -1406,7 +1422,7 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="14"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1414,10 +1430,10 @@
         <f>'Financial Model'!U26</f>
         <v>471.97528199999999</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -1431,14 +1447,14 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="17"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="28"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="W7" s="68"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="70"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1446,8 +1462,8 @@
         <f>C6*C7</f>
         <v>3884.3565708599999</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="G8" s="44"/>
+      <c r="D8" s="31"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -1470,7 +1486,7 @@
       <c r="AA8" s="16"/>
       <c r="AB8" s="17"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1478,10 +1494,10 @@
         <f>'Financial Model'!U72</f>
         <v>659.9</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -1504,7 +1520,7 @@
       <c r="AA9" s="16"/>
       <c r="AB9" s="17"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1512,10 +1528,10 @@
         <f>'Financial Model'!U73</f>
         <v>935.1</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -1538,7 +1554,7 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="17"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1546,10 +1562,10 @@
         <f>C9-C10</f>
         <v>-275.20000000000005</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -1572,7 +1588,7 @@
       <c r="AA11" s="16"/>
       <c r="AB11" s="17"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1580,8 +1596,8 @@
         <f>C8-C11</f>
         <v>4159.5565708599997</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="G12" s="44"/>
+      <c r="D12" s="32"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -1604,8 +1620,8 @@
       <c r="AA12" s="16"/>
       <c r="AB12" s="17"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G13" s="44"/>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="G13" s="29"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1628,8 +1644,8 @@
       <c r="AA13" s="16"/>
       <c r="AB13" s="17"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G14" s="44"/>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="G14" s="29"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -1652,13 +1668,13 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="17"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B15" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="G15" s="44"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -1681,18 +1697,18 @@
       <c r="AA15" s="16"/>
       <c r="AB15" s="17"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="G16" s="44"/>
+      <c r="D16" s="56"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -1715,15 +1731,15 @@
       <c r="AA16" s="16"/>
       <c r="AB16" s="17"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="G17" s="44"/>
+      <c r="D17" s="56"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -1744,15 +1760,15 @@
       <c r="AA17" s="16"/>
       <c r="AB17" s="17"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="G18" s="44"/>
+      <c r="D18" s="56"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -1773,15 +1789,15 @@
       <c r="AA18" s="16"/>
       <c r="AB18" s="17"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="G19" s="44"/>
+      <c r="D19" s="58"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -1802,8 +1818,8 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="17"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="G20" s="44"/>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="G20" s="29"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -1817,17 +1833,17 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="17"/>
-      <c r="W20" s="31" t="s">
+      <c r="W20" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="33"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="G21" s="44"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="73"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="G21" s="29"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -1850,13 +1866,13 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="17"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="G22" s="44"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -1879,15 +1895,15 @@
       <c r="AA22" s="16"/>
       <c r="AB22" s="17"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="G23" s="44"/>
+      <c r="D23" s="56"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -1910,15 +1926,15 @@
       <c r="AA23" s="16"/>
       <c r="AB23" s="17"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="55">
         <v>1982</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="G24" s="44"/>
+      <c r="D24" s="56"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -1941,11 +1957,11 @@
       <c r="AA24" s="16"/>
       <c r="AB24" s="17"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B25" s="22"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="G25" s="44"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -1966,13 +1982,13 @@
       <c r="AA25" s="16"/>
       <c r="AB25" s="17"/>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="G26" s="44"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -1993,7 +2009,7 @@
       <c r="AA26" s="16"/>
       <c r="AB26" s="17"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
@@ -2002,7 +2018,7 @@
         <v>1277.5999999999999</v>
       </c>
       <c r="D27" s="65"/>
-      <c r="G27" s="44"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -2017,11 +2033,11 @@
       <c r="S27" s="16"/>
       <c r="T27" s="17"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="G28" s="44"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -2036,17 +2052,17 @@
       <c r="S28" s="16"/>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="53">
         <v>44765</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -2061,15 +2077,15 @@
       <c r="S29" s="16"/>
       <c r="T29" s="17"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="G30" s="44"/>
+      <c r="D30" s="67"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -2084,8 +2100,8 @@
       <c r="S30" s="16"/>
       <c r="T30" s="17"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="G31" s="44"/>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="G31" s="29"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -2100,8 +2116,8 @@
       <c r="S31" s="16"/>
       <c r="T31" s="17"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="G32" s="44"/>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="G32" s="29"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -2116,13 +2132,13 @@
       <c r="S32" s="16"/>
       <c r="T32" s="17"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="23" t="s">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B33" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="G33" s="44"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -2137,16 +2153,16 @@
       <c r="S33" s="16"/>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="59">
         <f>C8/'Financial Model'!U6</f>
         <v>0.8083484009031694</v>
       </c>
-      <c r="D34" s="68"/>
-      <c r="G34" s="44"/>
+      <c r="D34" s="60"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -2161,16 +2177,16 @@
       <c r="S34" s="16"/>
       <c r="T34" s="17"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="59">
         <f>C6/'Financial Model'!U25</f>
         <v>15.120111213935388</v>
       </c>
-      <c r="D35" s="68"/>
-      <c r="G35" s="44"/>
+      <c r="D35" s="60"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -2185,16 +2201,16 @@
       <c r="S35" s="16"/>
       <c r="T35" s="17"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="59">
         <f>C12/'Financial Model'!U6</f>
         <v>0.8656184985037354</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="G36" s="45"/>
+      <c r="D36" s="60"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -2209,61 +2225,49 @@
       <c r="S36" s="18"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="59">
         <f>C6/'Financial Model'!U70</f>
         <v>2.9683299486932606</v>
       </c>
-      <c r="D37" s="68"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="9"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D37" s="60"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B38" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="74">
+        <f>'Financial Model'!U89</f>
+        <v>0.25248357022772422</v>
+      </c>
+      <c r="D38" s="56"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="W5:AB5"/>
     <mergeCell ref="W7:AB7"/>
     <mergeCell ref="C23:D23"/>
@@ -2274,6 +2278,23 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="G5:T5"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{424553EF-2E25-459C-8DED-FBECC4AAF054}"/>
@@ -2285,526 +2306,526 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315486F4-C59C-4E99-A8FF-A75A76B71134}">
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="43"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="43"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="43"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="43"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="43"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="43"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="28"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="28"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="28"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.1640625" style="28"/>
+    <col min="11" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="9.1640625" style="28"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="9.1640625" style="28"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="38" t="s">
+    <row r="1" spans="2:32" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AA1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AD1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AE1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AF1" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:32" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39"/>
-      <c r="D2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="R2" s="58">
+    <row r="2" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="24"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="R2" s="43">
         <v>43583</v>
       </c>
-      <c r="S2" s="58">
+      <c r="S2" s="43">
         <v>43947</v>
       </c>
-      <c r="T2" s="58">
+      <c r="T2" s="43">
         <v>44311</v>
       </c>
-      <c r="U2" s="58">
+      <c r="U2" s="43">
         <v>44675</v>
       </c>
     </row>
-    <row r="3" spans="2:32" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="39"/>
-      <c r="D3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="U3" s="73">
+    <row r="3" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="U3" s="54">
         <v>44765</v>
       </c>
     </row>
-    <row r="4" spans="2:32" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="2:32" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="R4" s="54">
+      <c r="D4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="R4" s="39">
         <v>3701.9</v>
       </c>
-      <c r="S4" s="54">
+      <c r="S4" s="39">
         <v>3957.4</v>
       </c>
-      <c r="T4" s="49">
+      <c r="T4" s="34">
         <v>3625.3</v>
       </c>
-      <c r="U4" s="54">
+      <c r="U4" s="39">
         <v>4787.1000000000004</v>
       </c>
     </row>
-    <row r="5" spans="2:32" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51" t="s">
+    <row r="5" spans="2:32" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="R5" s="54">
+      <c r="D5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="R5" s="39">
         <v>0</v>
       </c>
-      <c r="S5" s="54">
+      <c r="S5" s="39">
         <v>0</v>
       </c>
-      <c r="T5" s="61">
+      <c r="T5" s="46">
         <v>0</v>
       </c>
-      <c r="U5" s="54">
+      <c r="U5" s="39">
         <v>18.2</v>
       </c>
     </row>
-    <row r="6" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="R6" s="55">
+      <c r="D6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="R6" s="40">
         <f t="shared" ref="R6:S6" si="0">R4+R5</f>
         <v>3701.9</v>
       </c>
-      <c r="S6" s="55">
+      <c r="S6" s="40">
         <f t="shared" si="0"/>
         <v>3957.4</v>
       </c>
-      <c r="T6" s="55">
+      <c r="T6" s="40">
         <f>T4+T5</f>
         <v>3625.3</v>
       </c>
-      <c r="U6" s="55">
+      <c r="U6" s="40">
         <f>U4+U5</f>
         <v>4805.3</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="41">
         <v>2118.4</v>
       </c>
-      <c r="S7" s="56">
+      <c r="S7" s="41">
         <v>2294.8000000000002</v>
       </c>
       <c r="T7" s="1">
         <v>2094.5</v>
       </c>
-      <c r="U7" s="56">
+      <c r="U7" s="41">
         <v>2703.3</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R8" s="56">
+      <c r="R8" s="41">
         <v>0</v>
       </c>
-      <c r="S8" s="56">
+      <c r="S8" s="41">
         <v>0</v>
       </c>
-      <c r="T8" s="62">
+      <c r="T8" s="47">
         <v>0</v>
       </c>
-      <c r="U8" s="56">
+      <c r="U8" s="41">
         <v>13.3</v>
       </c>
     </row>
-    <row r="9" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="R9" s="55">
+      <c r="D9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="R9" s="40">
         <f t="shared" ref="R9:S9" si="1">R6-R7-R8</f>
         <v>1583.5</v>
       </c>
-      <c r="S9" s="55">
+      <c r="S9" s="40">
         <f t="shared" si="1"/>
         <v>1662.6</v>
       </c>
-      <c r="T9" s="55">
+      <c r="T9" s="40">
         <f>T6-T7-T8</f>
         <v>1530.8000000000002</v>
       </c>
-      <c r="U9" s="55">
+      <c r="U9" s="40">
         <f>U6-U7-U8</f>
         <v>2088.6999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="56">
+      <c r="R10" s="41">
         <v>1413.8</v>
       </c>
-      <c r="S10" s="56">
+      <c r="S10" s="41">
         <v>1564.3</v>
       </c>
-      <c r="T10" s="56">
+      <c r="T10" s="41">
         <v>1319</v>
       </c>
-      <c r="U10" s="56">
+      <c r="U10" s="41">
         <v>1588.8</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R11" s="56">
+      <c r="R11" s="41">
         <v>23.4</v>
       </c>
-      <c r="S11" s="56">
+      <c r="S11" s="41">
         <v>32.5</v>
       </c>
-      <c r="T11" s="56">
+      <c r="T11" s="41">
         <v>36.799999999999997</v>
       </c>
-      <c r="U11" s="56">
+      <c r="U11" s="41">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R12" s="56">
+      <c r="R12" s="41">
         <v>0</v>
       </c>
-      <c r="S12" s="56">
+      <c r="S12" s="41">
         <v>0</v>
       </c>
-      <c r="T12" s="56">
+      <c r="T12" s="41">
         <v>317</v>
       </c>
-      <c r="U12" s="56">
+      <c r="U12" s="41">
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R13" s="56">
+      <c r="R13" s="41">
         <v>41</v>
       </c>
-      <c r="S13" s="56">
+      <c r="S13" s="41">
         <v>13.1</v>
       </c>
-      <c r="T13" s="56">
+      <c r="T13" s="41">
         <v>1.6</v>
       </c>
-      <c r="U13" s="56">
+      <c r="U13" s="41">
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="56">
+      <c r="R14" s="41">
         <v>8.4</v>
       </c>
-      <c r="S14" s="56">
+      <c r="S14" s="41">
         <v>54.2</v>
       </c>
-      <c r="T14" s="56">
+      <c r="T14" s="41">
         <v>9.6999999999999993</v>
       </c>
-      <c r="U14" s="56">
+      <c r="U14" s="41">
         <v>10.8</v>
       </c>
     </row>
-    <row r="15" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="R15" s="55">
+      <c r="D15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="R15" s="40">
         <f>R9-R10+R11-R12-R13+R14</f>
         <v>160.50000000000006</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="40">
         <f>S9-S10+S11-S12-S13+S14</f>
         <v>171.89999999999998</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T15" s="40">
         <f>T9-T10+T11-T12-T13+T14</f>
         <v>-60.299999999999798</v>
       </c>
-      <c r="U15" s="55">
+      <c r="U15" s="40">
         <f>U9-U10+U11-U12-U13+U14</f>
         <v>330.39999999999986</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="56">
+      <c r="R16" s="41">
         <v>15</v>
       </c>
-      <c r="S16" s="56">
+      <c r="S16" s="41">
         <v>15.2</v>
       </c>
-      <c r="T16" s="56">
+      <c r="T16" s="41">
         <v>103.7</v>
       </c>
-      <c r="U16" s="56">
+      <c r="U16" s="41">
         <v>43.8</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R17" s="56">
+      <c r="R17" s="41">
         <v>8.3000000000000007</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="41">
         <v>49.8</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="41">
         <v>7.7</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="41">
         <v>19.7</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R18" s="56">
+      <c r="R18" s="41">
         <v>40</v>
       </c>
-      <c r="S18" s="56">
+      <c r="S18" s="41">
         <v>31</v>
       </c>
-      <c r="T18" s="56">
+      <c r="T18" s="41">
         <v>9</v>
       </c>
-      <c r="U18" s="56">
+      <c r="U18" s="41">
         <v>30.3</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R19" s="56">
+      <c r="R19" s="41">
         <v>19.399999999999999</v>
       </c>
-      <c r="S19" s="56">
+      <c r="S19" s="41">
         <v>29.3</v>
       </c>
-      <c r="T19" s="56">
+      <c r="T19" s="41">
         <v>36.200000000000003</v>
       </c>
-      <c r="U19" s="56">
+      <c r="U19" s="41">
         <v>49.2</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="56">
+      <c r="R20" s="41">
         <v>8.6</v>
       </c>
-      <c r="S20" s="56">
+      <c r="S20" s="41">
         <v>15.9</v>
       </c>
-      <c r="T20" s="56">
+      <c r="T20" s="41">
         <v>0</v>
       </c>
-      <c r="U20" s="56">
+      <c r="U20" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R21" s="56">
+      <c r="R21" s="41">
         <v>0</v>
       </c>
-      <c r="S21" s="56">
+      <c r="S21" s="41">
         <v>20.399999999999999</v>
       </c>
-      <c r="T21" s="56">
+      <c r="T21" s="41">
         <v>0</v>
       </c>
-      <c r="U21" s="56">
+      <c r="U21" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R22" s="56">
+      <c r="R22" s="41">
         <f>R15+R16-R17+R18-R19-R20+R21</f>
         <v>179.20000000000005</v>
       </c>
-      <c r="S22" s="56">
+      <c r="S22" s="41">
         <f t="shared" ref="S22:U22" si="2">S15+S16-S17+S18-S19-S20+S21</f>
         <v>143.49999999999994</v>
       </c>
-      <c r="T22" s="56">
+      <c r="T22" s="41">
         <f t="shared" si="2"/>
         <v>8.500000000000199</v>
       </c>
-      <c r="U22" s="56">
+      <c r="U22" s="41">
         <f t="shared" si="2"/>
         <v>335.59999999999991</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>96</v>
       </c>
@@ -2817,112 +2838,112 @@
       <c r="T23" s="1">
         <v>86.5</v>
       </c>
-      <c r="U23" s="56">
+      <c r="U23" s="41">
         <v>78.7</v>
       </c>
     </row>
-    <row r="24" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="R24" s="55">
+      <c r="D24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="R24" s="40">
         <f t="shared" ref="R24:S24" si="3">R22-R23</f>
         <v>116.00000000000004</v>
       </c>
-      <c r="S24" s="55">
+      <c r="S24" s="40">
         <f t="shared" si="3"/>
         <v>100.99999999999994</v>
       </c>
-      <c r="T24" s="55">
+      <c r="T24" s="40">
         <f>T22-T23</f>
         <v>-77.999999999999801</v>
       </c>
-      <c r="U24" s="55">
+      <c r="U24" s="40">
         <f>U22-U23</f>
         <v>256.89999999999992</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R25" s="63">
+      <c r="R25" s="48">
         <f t="shared" ref="R25:S25" si="4">R24/R26</f>
         <v>0.22330523722238971</v>
       </c>
-      <c r="S25" s="63">
+      <c r="S25" s="48">
         <f t="shared" si="4"/>
         <v>0.19967305415495001</v>
       </c>
-      <c r="T25" s="63">
+      <c r="T25" s="48">
         <f>T24/T26</f>
         <v>-0.15539232866443295</v>
       </c>
-      <c r="U25" s="63">
+      <c r="U25" s="48">
         <f>U24/U26</f>
         <v>0.54430816569754159</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="56">
+      <c r="R26" s="41">
         <v>519.46833600000002</v>
       </c>
-      <c r="S26" s="56">
+      <c r="S26" s="41">
         <v>505.82688999999999</v>
       </c>
-      <c r="T26" s="56">
+      <c r="T26" s="41">
         <v>501.95528100000001</v>
       </c>
-      <c r="U26" s="56">
+      <c r="U26" s="41">
         <v>471.97528199999999</v>
       </c>
     </row>
-    <row r="28" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="N28" s="52"/>
+      <c r="F28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="N28" s="37"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="59">
-        <f t="shared" ref="S28:U28" si="5">S6/R6-1</f>
+      <c r="S28" s="44">
+        <f t="shared" ref="S28:T28" si="5">S6/R6-1</f>
         <v>6.9018612064075224E-2</v>
       </c>
-      <c r="T28" s="59">
+      <c r="T28" s="44">
         <f t="shared" si="5"/>
         <v>-8.3918734522666405E-2</v>
       </c>
-      <c r="U28" s="59">
+      <c r="U28" s="44">
         <f>U6/T6-1</f>
         <v>0.3254903042506827</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="45"/>
       <c r="Q29" s="20" t="s">
         <v>108</v>
       </c>
@@ -2939,635 +2960,635 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R31" s="57">
-        <f t="shared" ref="R31:T31" si="6">R9/R6</f>
+      <c r="R31" s="42">
+        <f t="shared" ref="R31:S31" si="6">R9/R6</f>
         <v>0.42775331586482618</v>
       </c>
-      <c r="S31" s="57">
+      <c r="S31" s="42">
         <f t="shared" si="6"/>
         <v>0.42012432405114464</v>
       </c>
-      <c r="T31" s="57">
+      <c r="T31" s="42">
         <f>T9/T6</f>
         <v>0.42225470995503822</v>
       </c>
-      <c r="U31" s="57">
+      <c r="U31" s="42">
         <f>U9/U6</f>
         <v>0.43466588974673792</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R32" s="57">
-        <f t="shared" ref="R32:T32" si="7">R15/R6</f>
+      <c r="R32" s="42">
+        <f t="shared" ref="R32:S32" si="7">R15/R6</f>
         <v>4.3356114427726314E-2</v>
       </c>
-      <c r="S32" s="57">
+      <c r="S32" s="42">
         <f t="shared" si="7"/>
         <v>4.343761055238287E-2</v>
       </c>
-      <c r="T32" s="57">
+      <c r="T32" s="42">
         <f>T15/T6</f>
         <v>-1.6633106225691609E-2</v>
       </c>
-      <c r="U32" s="57">
+      <c r="U32" s="42">
         <f>U15/U6</f>
         <v>6.8757413689051639E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R33" s="57">
-        <f t="shared" ref="R33:T33" si="8">R24/R6</f>
+      <c r="R33" s="42">
+        <f t="shared" ref="R33:S33" si="8">R24/R6</f>
         <v>3.1335260271752353E-2</v>
       </c>
-      <c r="S33" s="57">
+      <c r="S33" s="42">
         <f t="shared" si="8"/>
         <v>2.552180724718248E-2</v>
       </c>
-      <c r="T33" s="57">
+      <c r="T33" s="42">
         <f>T24/T6</f>
         <v>-2.1515460789451851E-2</v>
       </c>
-      <c r="U33" s="57">
+      <c r="U33" s="42">
         <f>U24/U6</f>
         <v>5.3461802592970245E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R34" s="57">
-        <f t="shared" ref="R34:T34" si="9">R23/R22</f>
+      <c r="R34" s="42">
+        <f t="shared" ref="R34:S34" si="9">R23/R22</f>
         <v>0.35267857142857134</v>
       </c>
-      <c r="S34" s="57">
+      <c r="S34" s="42">
         <f t="shared" si="9"/>
         <v>0.2961672473867597</v>
       </c>
-      <c r="T34" s="57">
+      <c r="T34" s="42">
         <f>T23/T22</f>
         <v>10.176470588235055</v>
       </c>
-      <c r="U34" s="57">
+      <c r="U34" s="42">
         <f>U23/U22</f>
         <v>0.2345053635280096</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B38" s="53" t="s">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B38" s="38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R39" s="56">
+      <c r="R39" s="41">
         <v>823.2</v>
       </c>
-      <c r="S39" s="56">
+      <c r="S39" s="41">
         <v>1347.6</v>
       </c>
-      <c r="T39" s="56">
+      <c r="T39" s="41">
         <v>1164.9000000000001</v>
       </c>
-      <c r="U39" s="56">
+      <c r="U39" s="41">
         <v>1011</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R40" s="56">
+      <c r="R40" s="41">
         <v>22.2</v>
       </c>
-      <c r="S40" s="56">
+      <c r="S40" s="41">
         <v>18.899999999999999</v>
       </c>
-      <c r="T40" s="56">
+      <c r="T40" s="41">
         <v>14.1</v>
       </c>
-      <c r="U40" s="56">
+      <c r="U40" s="41">
         <v>89.2</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R41" s="56">
+      <c r="R41" s="41">
         <v>153</v>
       </c>
-      <c r="S41" s="56">
+      <c r="S41" s="41">
         <v>143.4</v>
       </c>
-      <c r="T41" s="56">
+      <c r="T41" s="41">
         <v>120.5</v>
       </c>
-      <c r="U41" s="56">
+      <c r="U41" s="41">
         <v>120.6</v>
       </c>
     </row>
-    <row r="42" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="R42" s="55">
+      <c r="D42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="R42" s="40">
         <v>11</v>
       </c>
-      <c r="S42" s="55">
+      <c r="S42" s="40">
         <v>0</v>
       </c>
-      <c r="T42" s="55">
+      <c r="T42" s="40">
         <v>263.3</v>
       </c>
-      <c r="U42" s="55">
+      <c r="U42" s="40">
         <v>206.6</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R43" s="56">
+      <c r="R43" s="41">
         <v>84.6</v>
       </c>
-      <c r="S43" s="56">
+      <c r="S43" s="41">
         <v>83.8</v>
       </c>
-      <c r="T43" s="56">
+      <c r="T43" s="41">
         <v>0</v>
       </c>
-      <c r="U43" s="56">
+      <c r="U43" s="41">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R44" s="56">
+      <c r="R44" s="41">
         <v>23.7</v>
       </c>
-      <c r="S44" s="56">
+      <c r="S44" s="41">
         <v>49.9</v>
       </c>
-      <c r="T44" s="56">
+      <c r="T44" s="41">
         <v>66.8</v>
       </c>
-      <c r="U44" s="56">
+      <c r="U44" s="41">
         <v>100.8</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R45" s="56">
+      <c r="R45" s="41">
         <f>SUM(R39:R44)</f>
         <v>1117.7</v>
       </c>
-      <c r="S45" s="56">
+      <c r="S45" s="41">
         <f>SUM(S39:S44)</f>
         <v>1643.6000000000001</v>
       </c>
-      <c r="T45" s="56">
+      <c r="T45" s="41">
         <f>SUM(T39:T44)</f>
         <v>1629.6</v>
       </c>
-      <c r="U45" s="56">
+      <c r="U45" s="41">
         <f>SUM(U39:U44)</f>
         <v>1530.3999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="R46" s="55">
+      <c r="D46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="R46" s="40">
         <v>978.4</v>
       </c>
-      <c r="S46" s="55">
+      <c r="S46" s="40">
         <v>1198.3</v>
       </c>
-      <c r="T46" s="55">
+      <c r="T46" s="40">
         <v>1096.5999999999999</v>
       </c>
-      <c r="U46" s="55">
+      <c r="U46" s="40">
         <v>1277.5999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R47" s="56">
+      <c r="R47" s="41">
         <v>432.5</v>
       </c>
-      <c r="S47" s="56">
+      <c r="S47" s="41">
         <v>414.2</v>
       </c>
-      <c r="T47" s="56">
+      <c r="T47" s="41">
         <v>546.5</v>
       </c>
-      <c r="U47" s="56">
+      <c r="U47" s="41">
         <v>841.4</v>
       </c>
     </row>
-    <row r="48" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="R48" s="55">
+      <c r="D48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="R48" s="40">
         <v>104.2</v>
       </c>
-      <c r="S48" s="55">
+      <c r="S48" s="40">
         <v>78.099999999999994</v>
       </c>
-      <c r="T48" s="55">
+      <c r="T48" s="40">
         <v>55.4</v>
       </c>
-      <c r="U48" s="55">
+      <c r="U48" s="40">
         <v>116.5</v>
       </c>
     </row>
-    <row r="49" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="R49" s="55">
+      <c r="D49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="R49" s="40">
         <v>448</v>
       </c>
-      <c r="S49" s="55">
+      <c r="S49" s="40">
         <v>534</v>
       </c>
-      <c r="T49" s="55">
+      <c r="T49" s="40">
         <v>457</v>
       </c>
-      <c r="U49" s="55">
+      <c r="U49" s="40">
         <v>336.8</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R50" s="56">
+      <c r="R50" s="41">
         <v>68</v>
       </c>
-      <c r="S50" s="56">
+      <c r="S50" s="41">
         <v>0</v>
       </c>
-      <c r="T50" s="56">
+      <c r="T50" s="41">
         <v>0</v>
       </c>
-      <c r="U50" s="56">
+      <c r="U50" s="41">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R51" s="56">
+      <c r="R51" s="41">
         <f t="shared" ref="R51:S51" si="10">R45+SUM(R46:R50)</f>
         <v>3148.8</v>
       </c>
-      <c r="S51" s="56">
+      <c r="S51" s="41">
         <f t="shared" si="10"/>
         <v>3868.2</v>
       </c>
-      <c r="T51" s="56">
+      <c r="T51" s="41">
         <f>T45+SUM(T46:T50)</f>
         <v>3785.1</v>
       </c>
-      <c r="U51" s="56">
+      <c r="U51" s="41">
         <f>U45+SUM(U46:U50)</f>
         <v>4142.7</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="U52" s="56"/>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="U52" s="41"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R53" s="56">
+      <c r="R53" s="41">
         <v>0</v>
       </c>
-      <c r="S53" s="56">
+      <c r="S53" s="41">
         <v>476.2</v>
       </c>
       <c r="T53" s="1">
         <v>534.20000000000005</v>
       </c>
-      <c r="U53" s="56">
+      <c r="U53" s="41">
         <v>503.6</v>
       </c>
     </row>
-    <row r="54" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="R54" s="55">
+      <c r="D54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="R54" s="40">
         <v>826.5</v>
       </c>
-      <c r="S54" s="55">
+      <c r="S54" s="40">
         <v>900</v>
       </c>
       <c r="T54" s="3">
         <v>705.9</v>
       </c>
-      <c r="U54" s="55">
+      <c r="U54" s="40">
         <v>827.9</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R55" s="56">
+      <c r="R55" s="41">
         <v>1.9</v>
       </c>
-      <c r="S55" s="56">
+      <c r="S55" s="41">
         <v>1.9</v>
       </c>
       <c r="T55" s="1">
         <v>1.9</v>
       </c>
-      <c r="U55" s="56">
+      <c r="U55" s="41">
         <v>1.6</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R56" s="56">
+      <c r="R56" s="41">
         <v>29</v>
       </c>
-      <c r="S56" s="56">
+      <c r="S56" s="41">
         <v>25.6</v>
       </c>
       <c r="T56" s="1">
         <v>27</v>
       </c>
-      <c r="U56" s="56">
+      <c r="U56" s="41">
         <v>40.4</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R57" s="56">
+      <c r="R57" s="41">
         <v>440.5</v>
       </c>
-      <c r="S57" s="56">
+      <c r="S57" s="41">
         <v>336</v>
       </c>
       <c r="T57" s="1">
         <v>361.2</v>
       </c>
-      <c r="U57" s="56">
+      <c r="U57" s="41">
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="R58" s="56">
+      <c r="R58" s="41">
         <f>SUM(R53:R57)</f>
         <v>1297.9000000000001</v>
       </c>
-      <c r="S58" s="56">
+      <c r="S58" s="41">
         <f>SUM(S53:S57)</f>
         <v>1739.7</v>
       </c>
-      <c r="T58" s="56">
+      <c r="T58" s="41">
         <f>SUM(T53:T57)</f>
         <v>1630.2</v>
       </c>
-      <c r="U58" s="56">
+      <c r="U58" s="41">
         <f>SUM(U53:U57)</f>
         <v>1806.5</v>
       </c>
     </row>
-    <row r="59" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="R59" s="55">
+      <c r="D59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="R59" s="40">
         <v>16.3</v>
       </c>
-      <c r="S59" s="55">
+      <c r="S59" s="40">
         <v>44.2</v>
       </c>
       <c r="T59" s="3">
         <v>19.2</v>
       </c>
-      <c r="U59" s="55">
+      <c r="U59" s="40">
         <v>107.2</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R60" s="56">
+      <c r="R60" s="41">
         <v>541.1</v>
       </c>
-      <c r="S60" s="56">
+      <c r="S60" s="41">
         <v>602.5</v>
       </c>
       <c r="T60" s="1">
         <v>646.29999999999995</v>
       </c>
-      <c r="U60" s="56">
+      <c r="U60" s="41">
         <v>729.8</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R61" s="56">
+      <c r="R61" s="41">
         <v>0</v>
       </c>
-      <c r="S61" s="56">
+      <c r="S61" s="41">
         <v>147.9</v>
       </c>
       <c r="T61" s="1">
         <v>188.5</v>
       </c>
-      <c r="U61" s="56">
+      <c r="U61" s="41">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R62" s="56">
+      <c r="R62" s="41">
         <v>41.1</v>
       </c>
-      <c r="S62" s="56">
+      <c r="S62" s="41">
         <v>53.6</v>
       </c>
       <c r="T62" s="1">
         <v>89.9</v>
       </c>
-      <c r="U62" s="56">
+      <c r="U62" s="41">
         <v>50.9</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R63" s="56">
+      <c r="R63" s="41">
         <v>0</v>
       </c>
-      <c r="S63" s="56">
+      <c r="S63" s="41">
         <v>0</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
       </c>
-      <c r="U63" s="56">
+      <c r="U63" s="41">
         <v>22.7</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R64" s="56">
+      <c r="R64" s="41">
         <f t="shared" ref="R64:S64" si="11">R58+SUM(R59:R63)</f>
         <v>1896.4</v>
       </c>
-      <c r="S64" s="56">
+      <c r="S64" s="41">
         <f t="shared" si="11"/>
         <v>2587.9</v>
       </c>
-      <c r="T64" s="56">
+      <c r="T64" s="41">
         <f>T58+SUM(T59:T63)</f>
         <v>2574.1</v>
       </c>
-      <c r="U64" s="56">
+      <c r="U64" s="41">
         <f>U58+SUM(U59:U63)</f>
         <v>2834.1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="R66" s="56">
+      <c r="R66" s="41">
         <v>1252.4000000000001</v>
       </c>
-      <c r="S66" s="56">
+      <c r="S66" s="41">
         <v>1280.3</v>
       </c>
-      <c r="T66" s="56">
+      <c r="T66" s="41">
         <v>1211</v>
       </c>
-      <c r="U66" s="56">
+      <c r="U66" s="41">
         <v>1308.5999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R67" s="56">
+      <c r="R67" s="41">
         <f t="shared" ref="R67:S67" si="12">R66+R64</f>
         <v>3148.8</v>
       </c>
-      <c r="S67" s="56">
+      <c r="S67" s="41">
         <f t="shared" si="12"/>
         <v>3868.2</v>
       </c>
-      <c r="T67" s="56">
+      <c r="T67" s="41">
         <f>T66+T64</f>
         <v>3785.1</v>
       </c>
-      <c r="U67" s="56">
+      <c r="U67" s="41">
         <f>U66+U64</f>
         <v>4142.7</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="R69" s="56">
-        <f t="shared" ref="R69:T69" si="13">R51-R64</f>
+      <c r="R69" s="41">
+        <f t="shared" ref="R69:S69" si="13">R51-R64</f>
         <v>1252.4000000000001</v>
       </c>
-      <c r="S69" s="56">
+      <c r="S69" s="41">
         <f t="shared" si="13"/>
         <v>1280.2999999999997</v>
       </c>
-      <c r="T69" s="56">
-        <f t="shared" ref="T69:U69" si="14">T51-T64</f>
+      <c r="T69" s="41">
+        <f t="shared" ref="T69" si="14">T51-T64</f>
         <v>1211</v>
       </c>
-      <c r="U69" s="56">
+      <c r="U69" s="41">
         <f>U51-U64</f>
         <v>1308.5999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>132</v>
       </c>
@@ -3588,61 +3609,61 @@
         <v>2.772602824569105</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="49" t="s">
+    <row r="72" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="R72" s="49">
-        <f t="shared" ref="R72:T72" si="18">R48+R49+R42</f>
+      <c r="D72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="R72" s="34">
+        <f t="shared" ref="R72:S72" si="18">R48+R49+R42</f>
         <v>563.20000000000005</v>
       </c>
-      <c r="S72" s="49">
+      <c r="S72" s="34">
         <f t="shared" si="18"/>
         <v>612.1</v>
       </c>
-      <c r="T72" s="49">
-        <f t="shared" ref="T72:U72" si="19">T48+T49+T42</f>
+      <c r="T72" s="34">
+        <f t="shared" ref="T72" si="19">T48+T49+T42</f>
         <v>775.7</v>
       </c>
-      <c r="U72" s="49">
+      <c r="U72" s="34">
         <f>U48+U49+U42</f>
         <v>659.9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="49" t="s">
+    <row r="73" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="R73" s="49">
-        <f t="shared" ref="R73:T73" si="20">R54+R59</f>
+      <c r="D73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="R73" s="34">
+        <f t="shared" ref="R73:S73" si="20">R54+R59</f>
         <v>842.8</v>
       </c>
-      <c r="S73" s="49">
+      <c r="S73" s="34">
         <f t="shared" si="20"/>
         <v>944.2</v>
       </c>
-      <c r="T73" s="49">
-        <f t="shared" ref="T73:U73" si="21">T54+T59</f>
+      <c r="T73" s="34">
+        <f t="shared" ref="T73" si="21">T54+T59</f>
         <v>725.1</v>
       </c>
-      <c r="U73" s="49">
+      <c r="U73" s="34">
         <f>U54+U59</f>
         <v>935.1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
@@ -3663,30 +3684,30 @@
         <v>-275.20000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="52"/>
-      <c r="F76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="S76" s="59">
-        <f t="shared" ref="S76:U76" si="25">S46/R46-1</f>
+      <c r="D76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="S76" s="44">
+        <f t="shared" ref="S76:T76" si="25">S46/R46-1</f>
         <v>0.2247547015535567</v>
       </c>
-      <c r="T76" s="59">
+      <c r="T76" s="44">
         <f t="shared" si="25"/>
         <v>-8.4870232829842296E-2</v>
       </c>
-      <c r="U76" s="59">
+      <c r="U76" s="44">
         <f>U46/T46-1</f>
         <v>0.16505562648185301</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>134</v>
       </c>
@@ -3703,190 +3724,215 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="69">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A78" s="50">
         <f>AVERAGE(R78:U78)</f>
         <v>0.28386373514389107</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R78" s="57">
-        <f t="shared" ref="R78:U78" si="26">R46/R6</f>
+      <c r="R78" s="42">
+        <f t="shared" ref="R78:T78" si="26">R46/R6</f>
         <v>0.26429671249898701</v>
       </c>
-      <c r="S78" s="57">
+      <c r="S78" s="42">
         <f t="shared" si="26"/>
         <v>0.30279981806236417</v>
       </c>
-      <c r="T78" s="57">
+      <c r="T78" s="42">
         <f t="shared" si="26"/>
         <v>0.30248531156042252</v>
       </c>
-      <c r="U78" s="57">
+      <c r="U78" s="42">
         <f>U46/U6</f>
         <v>0.26587309845379059</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="R80" s="71">
+      <c r="R80" s="52">
         <v>2.9780000000000002</v>
       </c>
-      <c r="S80" s="71">
+      <c r="S80" s="52">
         <v>2.6</v>
       </c>
-      <c r="T80" s="71">
+      <c r="T80" s="52">
         <v>5.1550000000000002</v>
       </c>
       <c r="U80" s="1">
         <v>6.79</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R81" s="56">
+      <c r="R81" s="41">
         <f t="shared" ref="R81:T81" si="27">R80*R26</f>
         <v>1546.9767046080001</v>
       </c>
-      <c r="S81" s="56">
+      <c r="S81" s="41">
         <f t="shared" si="27"/>
         <v>1315.1499140000001</v>
       </c>
-      <c r="T81" s="56">
+      <c r="T81" s="41">
         <f t="shared" si="27"/>
         <v>2587.5794735550003</v>
       </c>
-      <c r="U81" s="56">
+      <c r="U81" s="41">
         <f>U80*U26</f>
         <v>3204.71216478</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R82" s="56">
+      <c r="R82" s="41">
         <f t="shared" ref="R82:T82" si="28">R81-R74</f>
         <v>1826.576704608</v>
       </c>
-      <c r="S82" s="56">
+      <c r="S82" s="41">
         <f t="shared" si="28"/>
         <v>1647.249914</v>
       </c>
-      <c r="T82" s="56">
+      <c r="T82" s="41">
         <f t="shared" si="28"/>
         <v>2536.9794735550004</v>
       </c>
-      <c r="U82" s="56">
+      <c r="U82" s="41">
         <f>U81-U74</f>
         <v>3479.9121647800002</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A84" s="70">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A84" s="51">
         <f>AVERAGE(R84:U84)</f>
         <v>1.7120304481761268</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R84" s="66">
-        <f t="shared" ref="R84:U84" si="29">R80/R70</f>
+      <c r="R84" s="49">
+        <f t="shared" ref="R84:T84" si="29">R80/R70</f>
         <v>1.2352097609453849</v>
       </c>
-      <c r="S84" s="66">
+      <c r="S84" s="49">
         <f t="shared" si="29"/>
         <v>1.0272201155979068</v>
       </c>
-      <c r="T84" s="66">
+      <c r="T84" s="49">
         <f t="shared" si="29"/>
         <v>2.136729540507845</v>
       </c>
-      <c r="U84" s="66">
+      <c r="U84" s="49">
         <f>U80/U70</f>
         <v>2.4489623756533705</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A85" s="70">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A85" s="51">
         <f>AVERAGE(R85:U85)</f>
         <v>0.53272048080151513</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R85" s="66">
-        <f t="shared" ref="R85:U85" si="30">R81/R6</f>
+      <c r="R85" s="49">
+        <f t="shared" ref="R85:T85" si="30">R81/R6</f>
         <v>0.4178872213209433</v>
       </c>
-      <c r="S85" s="66">
+      <c r="S85" s="49">
         <f t="shared" si="30"/>
         <v>0.33232675847778848</v>
       </c>
-      <c r="T85" s="66">
+      <c r="T85" s="49">
         <f t="shared" si="30"/>
         <v>0.71375595772901557</v>
       </c>
-      <c r="U85" s="66">
+      <c r="U85" s="49">
         <f>U81/U6</f>
         <v>0.66691198567831345</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A86" s="70">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A86" s="51">
         <f>AVERAGE(R86:U86)</f>
         <v>0.58341051806433109</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R86" s="66">
-        <f t="shared" ref="R86:U86" si="31">R82/R6</f>
+      <c r="R86" s="49">
+        <f t="shared" ref="R86:T86" si="31">R82/R6</f>
         <v>0.49341600383802908</v>
       </c>
-      <c r="S86" s="66">
+      <c r="S86" s="49">
         <f t="shared" si="31"/>
         <v>0.41624549300045482</v>
       </c>
-      <c r="T86" s="66">
+      <c r="T86" s="49">
         <f t="shared" si="31"/>
         <v>0.69979849213996093</v>
       </c>
-      <c r="U86" s="66">
+      <c r="U86" s="49">
         <f>U82/U6</f>
         <v>0.72418208327887956</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A87" s="70">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A87" s="51">
         <f>AVERAGE(R87:U87)</f>
         <v>12.943947800523622</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R87" s="66">
-        <f t="shared" ref="R87:U87" si="32">R80/R25</f>
+      <c r="R87" s="49">
+        <f t="shared" ref="R87:S87" si="32">R80/R25</f>
         <v>13.336006074206892</v>
       </c>
-      <c r="S87" s="66">
+      <c r="S87" s="49">
         <f t="shared" si="32"/>
         <v>13.02128627722773</v>
       </c>
-      <c r="T87" s="66"/>
-      <c r="U87" s="66">
+      <c r="T87" s="49"/>
+      <c r="U87" s="49">
         <f>U80/U25</f>
         <v>12.474551050136244</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B88" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A89" s="50">
+        <f>AVERAGE(R89:U89)</f>
+        <v>0.11627734053941303</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R89" s="42">
+        <f t="shared" ref="R89:U89" si="33">R15/R69</f>
+        <v>0.12815394442670078</v>
+      </c>
+      <c r="S89" s="42">
+        <f t="shared" si="33"/>
+        <v>0.13426540654534094</v>
+      </c>
+      <c r="T89" s="42">
+        <f t="shared" si="33"/>
+        <v>-4.9793559042113786E-2</v>
+      </c>
+      <c r="U89" s="42">
+        <f>U15/U69</f>
+        <v>0.25248357022772422</v>
       </c>
     </row>
   </sheetData>

--- a/£FRAS.xlsx
+++ b/£FRAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C1DAD-FB84-9041-B9BA-703120E8A184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C58D6-3103-42F3-A48D-058EFCE77120}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30380" windowHeight="18900" xr2:uid="{DFC76227-194F-45DA-B2FC-C5CD2E3C1320}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="30375" windowHeight="18900" activeTab="1" xr2:uid="{DFC76227-194F-45DA-B2FC-C5CD2E3C1320}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -790,61 +780,61 @@
     <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,58 +1328,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCED253-2028-433E-A998-19555E53110C}">
   <dimension ref="A2:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B5" s="61" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="G5" s="61" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="G5" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="63"/>
-      <c r="W5" s="61" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57"/>
+      <c r="W5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="63"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="57"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1412,7 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="14"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1447,14 +1437,14 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="17"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="70"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="W7" s="58"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="60"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1476,7 @@
       <c r="AA8" s="16"/>
       <c r="AB8" s="17"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1510,7 @@
       <c r="AA9" s="16"/>
       <c r="AB9" s="17"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1544,7 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="17"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1578,7 @@
       <c r="AA11" s="16"/>
       <c r="AB11" s="17"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1620,7 +1610,7 @@
       <c r="AA12" s="16"/>
       <c r="AB12" s="17"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G13" s="29"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -1644,7 +1634,7 @@
       <c r="AA13" s="16"/>
       <c r="AB13" s="17"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G14" s="29"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -1668,12 +1658,12 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="17"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B15" s="61" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
       <c r="G15" s="29"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -1697,17 +1687,17 @@
       <c r="AA15" s="16"/>
       <c r="AB15" s="17"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="62"/>
       <c r="G16" s="29"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -1731,14 +1721,14 @@
       <c r="AA16" s="16"/>
       <c r="AB16" s="17"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="62"/>
       <c r="G17" s="29"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -1760,14 +1750,14 @@
       <c r="AA17" s="16"/>
       <c r="AB17" s="17"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="62"/>
       <c r="G18" s="29"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -1789,14 +1779,14 @@
       <c r="AA18" s="16"/>
       <c r="AB18" s="17"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="67"/>
       <c r="G19" s="29"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -1818,7 +1808,7 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="17"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="G20" s="29"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -1833,16 +1823,16 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="17"/>
-      <c r="W20" s="71" t="s">
+      <c r="W20" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="73"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="65"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="G21" s="29"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -1866,12 +1856,12 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="17"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B22" s="61" t="s">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B22" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
       <c r="G22" s="29"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -1895,14 +1885,14 @@
       <c r="AA22" s="16"/>
       <c r="AB22" s="17"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="56"/>
+      <c r="D23" s="62"/>
       <c r="G23" s="29"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -1926,14 +1916,14 @@
       <c r="AA23" s="16"/>
       <c r="AB23" s="17"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="61">
         <v>1982</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="62"/>
       <c r="G24" s="29"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -1957,10 +1947,10 @@
       <c r="AA24" s="16"/>
       <c r="AB24" s="17"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" s="22"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
       <c r="G25" s="29"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -1982,12 +1972,12 @@
       <c r="AA25" s="16"/>
       <c r="AB25" s="17"/>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
       <c r="G26" s="29"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -2009,15 +1999,15 @@
       <c r="AA26" s="16"/>
       <c r="AB26" s="17"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="68">
         <f>'Financial Model'!U46</f>
         <v>1277.5999999999999</v>
       </c>
-      <c r="D27" s="65"/>
+      <c r="D27" s="69"/>
       <c r="G27" s="29"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -2033,10 +2023,10 @@
       <c r="S27" s="16"/>
       <c r="T27" s="17"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
       <c r="G28" s="29"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -2052,7 +2042,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
         <v>16</v>
       </c>
@@ -2077,14 +2067,14 @@
       <c r="S29" s="16"/>
       <c r="T29" s="17"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="67"/>
+      <c r="D30" s="71"/>
       <c r="G30" s="29"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -2100,7 +2090,7 @@
       <c r="S30" s="16"/>
       <c r="T30" s="17"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="G31" s="29"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
@@ -2116,7 +2106,7 @@
       <c r="S31" s="16"/>
       <c r="T31" s="17"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="G32" s="29"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
@@ -2132,12 +2122,12 @@
       <c r="S32" s="16"/>
       <c r="T32" s="17"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B33" s="61" t="s">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="G33" s="29"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -2153,15 +2143,15 @@
       <c r="S33" s="16"/>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="72">
         <f>C8/'Financial Model'!U6</f>
         <v>0.8083484009031694</v>
       </c>
-      <c r="D34" s="60"/>
+      <c r="D34" s="73"/>
       <c r="G34" s="29"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -2177,15 +2167,15 @@
       <c r="S34" s="16"/>
       <c r="T34" s="17"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="72">
         <f>C6/'Financial Model'!U25</f>
         <v>15.120111213935388</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="73"/>
       <c r="G35" s="29"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -2201,15 +2191,15 @@
       <c r="S35" s="16"/>
       <c r="T35" s="17"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="72">
         <f>C12/'Financial Model'!U6</f>
         <v>0.8656184985037354</v>
       </c>
-      <c r="D36" s="60"/>
+      <c r="D36" s="73"/>
       <c r="G36" s="30"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -2225,49 +2215,66 @@
       <c r="S36" s="18"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="72">
         <f>C6/'Financial Model'!U70</f>
         <v>2.9683299486932606</v>
       </c>
-      <c r="D37" s="60"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="D37" s="73"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C38" s="74">
         <f>'Financial Model'!U89</f>
-        <v>0.25248357022772422</v>
-      </c>
-      <c r="D38" s="56"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
+        <v>0.14142624775276086</v>
+      </c>
+      <c r="D38" s="62"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="W5:AB5"/>
     <mergeCell ref="W7:AB7"/>
     <mergeCell ref="C23:D23"/>
@@ -2278,23 +2285,6 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="G5:T5"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{424553EF-2E25-459C-8DED-FBECC4AAF054}"/>
@@ -2308,33 +2298,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315486F4-C59C-4E99-A8FF-A75A76B71134}">
   <dimension ref="A1:AF89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="U89" sqref="R89:U89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="28"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="28"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="28"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="28"/>
-    <col min="11" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="9.1640625" style="28"/>
-    <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="9.1640625" style="28"/>
-    <col min="15" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="28"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="28"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="28"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="28"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="28"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="28"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:32" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="23" t="s">
         <v>55</v>
       </c>
@@ -2423,7 +2413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="D2" s="27"/>
       <c r="F2" s="27"/>
@@ -2444,7 +2434,7 @@
         <v>44675</v>
       </c>
     </row>
-    <row r="3" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="D3" s="27"/>
       <c r="F3" s="27"/>
@@ -2456,7 +2446,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="4" spans="2:32" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:32" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="36" t="s">
         <v>79</v>
       </c>
@@ -2479,7 +2469,7 @@
         <v>4787.1000000000004</v>
       </c>
     </row>
-    <row r="5" spans="2:32" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:32" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="36" t="s">
         <v>80</v>
       </c>
@@ -2502,7 +2492,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="6" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
@@ -2529,7 +2519,7 @@
         <v>4805.3</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
@@ -2546,7 +2536,7 @@
         <v>2703.3</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
@@ -2563,7 +2553,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="9" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
@@ -2590,7 +2580,7 @@
         <v>2088.6999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>85</v>
       </c>
@@ -2607,7 +2597,7 @@
         <v>1588.8</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>86</v>
       </c>
@@ -2624,7 +2614,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
@@ -2641,7 +2631,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
@@ -2658,7 +2648,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
@@ -2675,7 +2665,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="15" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>90</v>
       </c>
@@ -2702,7 +2692,7 @@
         <v>330.39999999999986</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
@@ -2719,7 +2709,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2726,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2753,7 +2743,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
@@ -2770,7 +2760,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>140</v>
       </c>
@@ -2787,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>141</v>
       </c>
@@ -2804,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
@@ -2825,7 +2815,7 @@
         <v>335.59999999999991</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>96</v>
       </c>
@@ -2842,7 +2832,7 @@
         <v>78.7</v>
       </c>
     </row>
-    <row r="24" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>97</v>
       </c>
@@ -2869,7 +2859,7 @@
         <v>256.89999999999992</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>98</v>
       </c>
@@ -2890,7 +2880,7 @@
         <v>0.54430816569754159</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
@@ -2907,7 +2897,7 @@
         <v>471.97528199999999</v>
       </c>
     </row>
-    <row r="28" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>99</v>
       </c>
@@ -2936,7 +2926,7 @@
         <v>0.3254903042506827</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>100</v>
       </c>
@@ -2960,7 +2950,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>101</v>
       </c>
@@ -2981,7 +2971,7 @@
         <v>0.43466588974673792</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>102</v>
       </c>
@@ -3002,7 +2992,7 @@
         <v>6.8757413689051639E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>103</v>
       </c>
@@ -3023,7 +3013,7 @@
         <v>5.3461802592970245E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
@@ -3044,12 +3034,12 @@
         <v>0.2345053635280096</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>109</v>
       </c>
@@ -3066,7 +3056,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>110</v>
       </c>
@@ -3083,7 +3073,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>111</v>
       </c>
@@ -3100,7 +3090,7 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="42" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>112</v>
       </c>
@@ -3123,7 +3113,7 @@
         <v>206.6</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
@@ -3140,7 +3130,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
@@ -3157,7 +3147,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
@@ -3178,7 +3168,7 @@
         <v>1530.3999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>116</v>
       </c>
@@ -3201,7 +3191,7 @@
         <v>1277.5999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>117</v>
       </c>
@@ -3218,7 +3208,7 @@
         <v>841.4</v>
       </c>
     </row>
-    <row r="48" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>118</v>
       </c>
@@ -3241,7 +3231,7 @@
         <v>116.5</v>
       </c>
     </row>
-    <row r="49" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3264,7 +3254,7 @@
         <v>336.8</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>138</v>
       </c>
@@ -3281,7 +3271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>119</v>
       </c>
@@ -3302,10 +3292,10 @@
         <v>4142.7</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U52" s="41"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
@@ -3322,7 +3312,7 @@
         <v>503.6</v>
       </c>
     </row>
-    <row r="54" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>121</v>
       </c>
@@ -3345,7 +3335,7 @@
         <v>827.9</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>122</v>
       </c>
@@ -3362,7 +3352,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>114</v>
       </c>
@@ -3379,7 +3369,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>123</v>
       </c>
@@ -3396,7 +3386,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>124</v>
       </c>
@@ -3417,7 +3407,7 @@
         <v>1806.5</v>
       </c>
     </row>
-    <row r="59" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>125</v>
       </c>
@@ -3440,7 +3430,7 @@
         <v>107.2</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>126</v>
       </c>
@@ -3457,7 +3447,7 @@
         <v>729.8</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3474,7 +3464,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>127</v>
       </c>
@@ -3491,7 +3481,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>138</v>
       </c>
@@ -3508,7 +3498,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>128</v>
       </c>
@@ -3529,7 +3519,7 @@
         <v>2834.1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
@@ -3546,7 +3536,7 @@
         <v>1308.5999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>130</v>
       </c>
@@ -3567,7 +3557,7 @@
         <v>4142.7</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>131</v>
       </c>
@@ -3588,7 +3578,7 @@
         <v>1308.5999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>132</v>
       </c>
@@ -3609,7 +3599,7 @@
         <v>2.772602824569105</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="34" t="s">
         <v>5</v>
       </c>
@@ -3636,7 +3626,7 @@
         <v>659.9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="34" t="s">
         <v>6</v>
       </c>
@@ -3663,7 +3653,7 @@
         <v>935.1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
@@ -3684,7 +3674,7 @@
         <v>-275.20000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>133</v>
       </c>
@@ -3707,7 +3697,7 @@
         <v>0.16505562648185301</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>134</v>
       </c>
@@ -3724,7 +3714,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="50">
         <f>AVERAGE(R78:U78)</f>
         <v>0.28386373514389107</v>
@@ -3749,7 +3739,7 @@
         <v>0.26587309845379059</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>139</v>
       </c>
@@ -3766,7 +3756,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
@@ -3787,7 +3777,7 @@
         <v>3204.71216478</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>8</v>
       </c>
@@ -3808,7 +3798,7 @@
         <v>3479.9121647800002</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="51">
         <f>AVERAGE(R84:U84)</f>
         <v>1.7120304481761268</v>
@@ -3833,7 +3823,7 @@
         <v>2.4489623756533705</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="51">
         <f>AVERAGE(R85:U85)</f>
         <v>0.53272048080151513</v>
@@ -3858,7 +3848,7 @@
         <v>0.66691198567831345</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="51">
         <f>AVERAGE(R86:U86)</f>
         <v>0.58341051806433109</v>
@@ -3883,7 +3873,7 @@
         <v>0.72418208327887956</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="51">
         <f>AVERAGE(R87:U87)</f>
         <v>12.943947800523622</v>
@@ -3905,34 +3895,34 @@
         <v>12.474551050136244</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="50">
         <f>AVERAGE(R89:U89)</f>
-        <v>0.11627734053941303</v>
+        <v>7.0229795347548835E-2</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>143</v>
       </c>
       <c r="R89" s="42">
-        <f t="shared" ref="R89:U89" si="33">R15/R69</f>
-        <v>0.12815394442670078</v>
+        <f t="shared" ref="R89:U89" si="33">R15/(R51-R58)</f>
+        <v>8.6714571289642897E-2</v>
       </c>
       <c r="S89" s="42">
         <f t="shared" si="33"/>
-        <v>0.13426540654534094</v>
+        <v>8.0761099365750516E-2</v>
       </c>
       <c r="T89" s="42">
         <f t="shared" si="33"/>
-        <v>-4.9793559042113786E-2</v>
+        <v>-2.7982737017958982E-2</v>
       </c>
       <c r="U89" s="42">
-        <f>U15/U69</f>
-        <v>0.25248357022772422</v>
+        <f>U15/(U51-U58)</f>
+        <v>0.14142624775276086</v>
       </c>
     </row>
   </sheetData>

--- a/£FRAS.xlsx
+++ b/£FRAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C58D6-3103-42F3-A48D-058EFCE77120}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27A641C-5FC0-4B9E-B592-31851E442A42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="30375" windowHeight="18900" activeTab="1" xr2:uid="{DFC76227-194F-45DA-B2FC-C5CD2E3C1320}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="30375" windowHeight="18900" xr2:uid="{DFC76227-194F-45DA-B2FC-C5CD2E3C1320}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
   <si>
     <t>£FRAS</t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>ROCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Ashley, founder, takes out Spread Bet in 100,000 shares at 815p per share. Funded in part in sale of put options of 500,000 shares </t>
+  </si>
+  <si>
+    <t>which were expiring Sep 23 with a strike price of 900p</t>
+  </si>
+  <si>
+    <t>The put option, which gives Ashley the right to sell Frasers shares at that price, expires in September of next year</t>
   </si>
 </sst>
 </file>
@@ -680,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -734,8 +743,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -780,6 +787,30 @@
     <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,6 +820,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -798,12 +841,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,33 +850,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1328,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCED253-2028-433E-A998-19555E53110C}">
   <dimension ref="A2:AB41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1349,35 +1366,35 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="G5" s="55" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="G5" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57"/>
-      <c r="W5" s="55" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="63"/>
+      <c r="W5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="57"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="63"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -1386,8 +1403,8 @@
       <c r="C6" s="4">
         <v>8.23</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -1420,11 +1437,15 @@
         <f>'Financial Model'!U26</f>
         <v>471.97528199999999</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="74">
+        <v>44896</v>
+      </c>
+      <c r="H7" s="76" t="s">
+        <v>144</v>
+      </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -1437,12 +1458,12 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="17"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="70"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
@@ -1452,9 +1473,11 @@
         <f>C6*C7</f>
         <v>3884.3565708599999</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="29"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="75" t="s">
+        <v>145</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -1484,11 +1507,13 @@
         <f>'Financial Model'!U72</f>
         <v>659.9</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="75" t="s">
+        <v>146</v>
+      </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -1518,10 +1543,10 @@
         <f>'Financial Model'!U73</f>
         <v>935.1</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -1552,10 +1577,10 @@
         <f>C9-C10</f>
         <v>-275.20000000000005</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -1586,8 +1611,8 @@
         <f>C8-C11</f>
         <v>4159.5565708599997</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="G12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -1611,7 +1636,7 @@
       <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G13" s="29"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1635,7 +1660,7 @@
       <c r="AB13" s="17"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G14" s="29"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -1659,12 +1684,12 @@
       <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="G15" s="29"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -1694,11 +1719,11 @@
       <c r="B16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="G16" s="29"/>
+      <c r="D16" s="55"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -1725,11 +1750,11 @@
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="G17" s="29"/>
+      <c r="D17" s="55"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -1754,11 +1779,11 @@
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="G18" s="29"/>
+      <c r="D18" s="55"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -1783,11 +1808,11 @@
       <c r="B19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="G19" s="29"/>
+      <c r="D19" s="57"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -1809,7 +1834,7 @@
       <c r="AB19" s="17"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="G20" s="29"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -1823,17 +1848,17 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="17"/>
-      <c r="W20" s="63" t="s">
+      <c r="W20" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="65"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="73"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="G21" s="29"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -1857,12 +1882,12 @@
       <c r="AB21" s="17"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="G22" s="29"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -1889,11 +1914,11 @@
       <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="G23" s="29"/>
+      <c r="D23" s="55"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -1920,11 +1945,11 @@
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="54">
         <v>1982</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="G24" s="29"/>
+      <c r="D24" s="55"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -1949,9 +1974,9 @@
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" s="22"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -1976,9 +2001,9 @@
       <c r="B26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="G26" s="29"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -2003,12 +2028,12 @@
       <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="64">
         <f>'Financial Model'!U46</f>
         <v>1277.5999999999999</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="G27" s="29"/>
+      <c r="D27" s="65"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -2025,9 +2050,9 @@
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -2049,10 +2074,10 @@
       <c r="C29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="51">
         <v>44765</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -2071,11 +2096,11 @@
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="G30" s="29"/>
+      <c r="D30" s="67"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -2091,7 +2116,7 @@
       <c r="T30" s="17"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="G31" s="29"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -2107,7 +2132,7 @@
       <c r="T31" s="17"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="G32" s="29"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -2123,12 +2148,12 @@
       <c r="T32" s="17"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="G33" s="29"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -2147,12 +2172,12 @@
       <c r="B34" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="58">
         <f>C8/'Financial Model'!U6</f>
         <v>0.8083484009031694</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="G34" s="29"/>
+      <c r="D34" s="59"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -2171,12 +2196,12 @@
       <c r="B35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="58">
         <f>C6/'Financial Model'!U25</f>
         <v>15.120111213935388</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="G35" s="29"/>
+      <c r="D35" s="59"/>
+      <c r="G35" s="53"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -2195,12 +2220,12 @@
       <c r="B36" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="58">
         <f>C12/'Financial Model'!U6</f>
         <v>0.8656184985037354</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="G36" s="30"/>
+      <c r="D36" s="59"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -2219,62 +2244,45 @@
       <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="58">
         <f>C6/'Financial Model'!U70</f>
         <v>2.9683299486932606</v>
       </c>
-      <c r="D37" s="73"/>
+      <c r="D37" s="59"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="60">
         <f>'Financial Model'!U89</f>
         <v>0.14142624775276086</v>
       </c>
-      <c r="D38" s="62"/>
+      <c r="D38" s="55"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="W5:AB5"/>
     <mergeCell ref="W7:AB7"/>
     <mergeCell ref="C23:D23"/>
@@ -2285,12 +2293,31 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="G5:T5"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{424553EF-2E25-459C-8DED-FBECC4AAF054}"/>
+    <hyperlink ref="H7" r:id="rId2" location=":~:text=Frasers%20Group%20PLC%20%2D%20Shirebrook%2C%20England,900p%2C%20worth%20%C2%A32.7%20million." xr:uid="{62FA925A-5E65-4D34-988E-1274AF7F4DD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2298,11 +2325,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315486F4-C59C-4E99-A8FF-A75A76B71134}">
   <dimension ref="A1:AF89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U89" sqref="R89:U89"/>
+      <selection pane="bottomRight" activeCell="R89" sqref="R89:U89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2370,13 +2397,13 @@
       <c r="R1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="31" t="s">
         <v>58</v>
       </c>
       <c r="T1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="31" t="s">
         <v>60</v>
       </c>
       <c r="V1" s="23" t="s">
@@ -2421,16 +2448,16 @@
       <c r="J2" s="27"/>
       <c r="L2" s="27"/>
       <c r="N2" s="27"/>
-      <c r="R2" s="43">
+      <c r="R2" s="41">
         <v>43583</v>
       </c>
-      <c r="S2" s="43">
+      <c r="S2" s="41">
         <v>43947</v>
       </c>
-      <c r="T2" s="43">
+      <c r="T2" s="41">
         <v>44311</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="41">
         <v>44675</v>
       </c>
     </row>
@@ -2442,53 +2469,53 @@
       <c r="J3" s="27"/>
       <c r="L3" s="27"/>
       <c r="N3" s="27"/>
-      <c r="U3" s="54">
+      <c r="U3" s="52">
         <v>44765</v>
       </c>
     </row>
-    <row r="4" spans="2:32" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="R4" s="39">
+      <c r="D4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="R4" s="37">
         <v>3701.9</v>
       </c>
-      <c r="S4" s="39">
+      <c r="S4" s="37">
         <v>3957.4</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4" s="32">
         <v>3625.3</v>
       </c>
-      <c r="U4" s="39">
+      <c r="U4" s="37">
         <v>4787.1000000000004</v>
       </c>
     </row>
-    <row r="5" spans="2:32" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="R5" s="39">
+      <c r="D5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="R5" s="37">
         <v>0</v>
       </c>
-      <c r="S5" s="39">
+      <c r="S5" s="37">
         <v>0</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="44">
         <v>0</v>
       </c>
-      <c r="U5" s="39">
+      <c r="U5" s="37">
         <v>18.2</v>
       </c>
     </row>
@@ -2496,25 +2523,25 @@
       <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="R6" s="40">
+      <c r="D6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="R6" s="38">
         <f t="shared" ref="R6:S6" si="0">R4+R5</f>
         <v>3701.9</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="38">
         <f t="shared" si="0"/>
         <v>3957.4</v>
       </c>
-      <c r="T6" s="40">
+      <c r="T6" s="38">
         <f>T4+T5</f>
         <v>3625.3</v>
       </c>
-      <c r="U6" s="40">
+      <c r="U6" s="38">
         <f>U4+U5</f>
         <v>4805.3</v>
       </c>
@@ -2523,16 +2550,16 @@
       <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="39">
         <v>2118.4</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="39">
         <v>2294.8000000000002</v>
       </c>
       <c r="T7" s="1">
         <v>2094.5</v>
       </c>
-      <c r="U7" s="41">
+      <c r="U7" s="39">
         <v>2703.3</v>
       </c>
     </row>
@@ -2540,16 +2567,16 @@
       <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="39">
         <v>0</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="39">
         <v>0</v>
       </c>
-      <c r="T8" s="47">
+      <c r="T8" s="45">
         <v>0</v>
       </c>
-      <c r="U8" s="41">
+      <c r="U8" s="39">
         <v>13.3</v>
       </c>
     </row>
@@ -2557,25 +2584,25 @@
       <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="R9" s="40">
+      <c r="D9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="R9" s="38">
         <f t="shared" ref="R9:S9" si="1">R6-R7-R8</f>
         <v>1583.5</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="38">
         <f t="shared" si="1"/>
         <v>1662.6</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="38">
         <f>T6-T7-T8</f>
         <v>1530.8000000000002</v>
       </c>
-      <c r="U9" s="40">
+      <c r="U9" s="38">
         <f>U6-U7-U8</f>
         <v>2088.6999999999998</v>
       </c>
@@ -2584,16 +2611,16 @@
       <c r="B10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="39">
         <v>1413.8</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="39">
         <v>1564.3</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="39">
         <v>1319</v>
       </c>
-      <c r="U10" s="41">
+      <c r="U10" s="39">
         <v>1588.8</v>
       </c>
     </row>
@@ -2601,16 +2628,16 @@
       <c r="B11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="39">
         <v>23.4</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="39">
         <v>32.5</v>
       </c>
-      <c r="T11" s="41">
+      <c r="T11" s="39">
         <v>36.799999999999997</v>
       </c>
-      <c r="U11" s="41">
+      <c r="U11" s="39">
         <v>48</v>
       </c>
     </row>
@@ -2618,16 +2645,16 @@
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="39">
         <v>0</v>
       </c>
-      <c r="S12" s="41">
+      <c r="S12" s="39">
         <v>0</v>
       </c>
-      <c r="T12" s="41">
+      <c r="T12" s="39">
         <v>317</v>
       </c>
-      <c r="U12" s="41">
+      <c r="U12" s="39">
         <v>227</v>
       </c>
     </row>
@@ -2635,16 +2662,16 @@
       <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="39">
         <v>41</v>
       </c>
-      <c r="S13" s="41">
+      <c r="S13" s="39">
         <v>13.1</v>
       </c>
-      <c r="T13" s="41">
+      <c r="T13" s="39">
         <v>1.6</v>
       </c>
-      <c r="U13" s="41">
+      <c r="U13" s="39">
         <v>1.3</v>
       </c>
     </row>
@@ -2652,16 +2679,16 @@
       <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="41">
+      <c r="R14" s="39">
         <v>8.4</v>
       </c>
-      <c r="S14" s="41">
+      <c r="S14" s="39">
         <v>54.2</v>
       </c>
-      <c r="T14" s="41">
+      <c r="T14" s="39">
         <v>9.6999999999999993</v>
       </c>
-      <c r="U14" s="41">
+      <c r="U14" s="39">
         <v>10.8</v>
       </c>
     </row>
@@ -2669,25 +2696,25 @@
       <c r="B15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="R15" s="40">
+      <c r="D15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="R15" s="38">
         <f>R9-R10+R11-R12-R13+R14</f>
         <v>160.50000000000006</v>
       </c>
-      <c r="S15" s="40">
+      <c r="S15" s="38">
         <f>S9-S10+S11-S12-S13+S14</f>
         <v>171.89999999999998</v>
       </c>
-      <c r="T15" s="40">
+      <c r="T15" s="38">
         <f>T9-T10+T11-T12-T13+T14</f>
         <v>-60.299999999999798</v>
       </c>
-      <c r="U15" s="40">
+      <c r="U15" s="38">
         <f>U9-U10+U11-U12-U13+U14</f>
         <v>330.39999999999986</v>
       </c>
@@ -2696,16 +2723,16 @@
       <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="41">
+      <c r="R16" s="39">
         <v>15</v>
       </c>
-      <c r="S16" s="41">
+      <c r="S16" s="39">
         <v>15.2</v>
       </c>
-      <c r="T16" s="41">
+      <c r="T16" s="39">
         <v>103.7</v>
       </c>
-      <c r="U16" s="41">
+      <c r="U16" s="39">
         <v>43.8</v>
       </c>
     </row>
@@ -2713,16 +2740,16 @@
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R17" s="41">
+      <c r="R17" s="39">
         <v>8.3000000000000007</v>
       </c>
-      <c r="S17" s="41">
+      <c r="S17" s="39">
         <v>49.8</v>
       </c>
-      <c r="T17" s="41">
+      <c r="T17" s="39">
         <v>7.7</v>
       </c>
-      <c r="U17" s="41">
+      <c r="U17" s="39">
         <v>19.7</v>
       </c>
     </row>
@@ -2730,16 +2757,16 @@
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R18" s="41">
+      <c r="R18" s="39">
         <v>40</v>
       </c>
-      <c r="S18" s="41">
+      <c r="S18" s="39">
         <v>31</v>
       </c>
-      <c r="T18" s="41">
+      <c r="T18" s="39">
         <v>9</v>
       </c>
-      <c r="U18" s="41">
+      <c r="U18" s="39">
         <v>30.3</v>
       </c>
     </row>
@@ -2747,16 +2774,16 @@
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R19" s="41">
+      <c r="R19" s="39">
         <v>19.399999999999999</v>
       </c>
-      <c r="S19" s="41">
+      <c r="S19" s="39">
         <v>29.3</v>
       </c>
-      <c r="T19" s="41">
+      <c r="T19" s="39">
         <v>36.200000000000003</v>
       </c>
-      <c r="U19" s="41">
+      <c r="U19" s="39">
         <v>49.2</v>
       </c>
     </row>
@@ -2764,16 +2791,16 @@
       <c r="B20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="41">
+      <c r="R20" s="39">
         <v>8.6</v>
       </c>
-      <c r="S20" s="41">
+      <c r="S20" s="39">
         <v>15.9</v>
       </c>
-      <c r="T20" s="41">
+      <c r="T20" s="39">
         <v>0</v>
       </c>
-      <c r="U20" s="41">
+      <c r="U20" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2781,16 +2808,16 @@
       <c r="B21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R21" s="41">
+      <c r="R21" s="39">
         <v>0</v>
       </c>
-      <c r="S21" s="41">
+      <c r="S21" s="39">
         <v>20.399999999999999</v>
       </c>
-      <c r="T21" s="41">
+      <c r="T21" s="39">
         <v>0</v>
       </c>
-      <c r="U21" s="41">
+      <c r="U21" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2798,19 +2825,19 @@
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R22" s="41">
+      <c r="R22" s="39">
         <f>R15+R16-R17+R18-R19-R20+R21</f>
         <v>179.20000000000005</v>
       </c>
-      <c r="S22" s="41">
+      <c r="S22" s="39">
         <f t="shared" ref="S22:U22" si="2">S15+S16-S17+S18-S19-S20+S21</f>
         <v>143.49999999999994</v>
       </c>
-      <c r="T22" s="41">
+      <c r="T22" s="39">
         <f t="shared" si="2"/>
         <v>8.500000000000199</v>
       </c>
-      <c r="U22" s="41">
+      <c r="U22" s="39">
         <f t="shared" si="2"/>
         <v>335.59999999999991</v>
       </c>
@@ -2828,7 +2855,7 @@
       <c r="T23" s="1">
         <v>86.5</v>
       </c>
-      <c r="U23" s="41">
+      <c r="U23" s="39">
         <v>78.7</v>
       </c>
     </row>
@@ -2836,25 +2863,25 @@
       <c r="B24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="R24" s="40">
+      <c r="D24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="R24" s="38">
         <f t="shared" ref="R24:S24" si="3">R22-R23</f>
         <v>116.00000000000004</v>
       </c>
-      <c r="S24" s="40">
+      <c r="S24" s="38">
         <f t="shared" si="3"/>
         <v>100.99999999999994</v>
       </c>
-      <c r="T24" s="40">
+      <c r="T24" s="38">
         <f>T22-T23</f>
         <v>-77.999999999999801</v>
       </c>
-      <c r="U24" s="40">
+      <c r="U24" s="38">
         <f>U22-U23</f>
         <v>256.89999999999992</v>
       </c>
@@ -2863,19 +2890,19 @@
       <c r="B25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R25" s="48">
+      <c r="R25" s="46">
         <f t="shared" ref="R25:S25" si="4">R24/R26</f>
         <v>0.22330523722238971</v>
       </c>
-      <c r="S25" s="48">
+      <c r="S25" s="46">
         <f t="shared" si="4"/>
         <v>0.19967305415495001</v>
       </c>
-      <c r="T25" s="48">
+      <c r="T25" s="46">
         <f>T24/T26</f>
         <v>-0.15539232866443295</v>
       </c>
-      <c r="U25" s="48">
+      <c r="U25" s="46">
         <f>U24/U26</f>
         <v>0.54430816569754159</v>
       </c>
@@ -2884,16 +2911,16 @@
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="41">
+      <c r="R26" s="39">
         <v>519.46833600000002</v>
       </c>
-      <c r="S26" s="41">
+      <c r="S26" s="39">
         <v>505.82688999999999</v>
       </c>
-      <c r="T26" s="41">
+      <c r="T26" s="39">
         <v>501.95528100000001</v>
       </c>
-      <c r="U26" s="41">
+      <c r="U26" s="39">
         <v>471.97528199999999</v>
       </c>
     </row>
@@ -2907,21 +2934,21 @@
       <c r="D28" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="N28" s="37"/>
+      <c r="F28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="N28" s="35"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="44">
+      <c r="S28" s="42">
         <f t="shared" ref="S28:T28" si="5">S6/R6-1</f>
         <v>6.9018612064075224E-2</v>
       </c>
-      <c r="T28" s="44">
+      <c r="T28" s="42">
         <f t="shared" si="5"/>
         <v>-8.3918734522666405E-2</v>
       </c>
-      <c r="U28" s="44">
+      <c r="U28" s="42">
         <f>U6/T6-1</f>
         <v>0.3254903042506827</v>
       </c>
@@ -2933,7 +2960,7 @@
       <c r="C29" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="43"/>
       <c r="Q29" s="20" t="s">
         <v>108</v>
       </c>
@@ -2954,19 +2981,19 @@
       <c r="B31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R31" s="42">
+      <c r="R31" s="40">
         <f t="shared" ref="R31:S31" si="6">R9/R6</f>
         <v>0.42775331586482618</v>
       </c>
-      <c r="S31" s="42">
+      <c r="S31" s="40">
         <f t="shared" si="6"/>
         <v>0.42012432405114464</v>
       </c>
-      <c r="T31" s="42">
+      <c r="T31" s="40">
         <f>T9/T6</f>
         <v>0.42225470995503822</v>
       </c>
-      <c r="U31" s="42">
+      <c r="U31" s="40">
         <f>U9/U6</f>
         <v>0.43466588974673792</v>
       </c>
@@ -2975,19 +3002,19 @@
       <c r="B32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R32" s="42">
+      <c r="R32" s="40">
         <f t="shared" ref="R32:S32" si="7">R15/R6</f>
         <v>4.3356114427726314E-2</v>
       </c>
-      <c r="S32" s="42">
+      <c r="S32" s="40">
         <f t="shared" si="7"/>
         <v>4.343761055238287E-2</v>
       </c>
-      <c r="T32" s="42">
+      <c r="T32" s="40">
         <f>T15/T6</f>
         <v>-1.6633106225691609E-2</v>
       </c>
-      <c r="U32" s="42">
+      <c r="U32" s="40">
         <f>U15/U6</f>
         <v>6.8757413689051639E-2</v>
       </c>
@@ -2996,19 +3023,19 @@
       <c r="B33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R33" s="42">
+      <c r="R33" s="40">
         <f t="shared" ref="R33:S33" si="8">R24/R6</f>
         <v>3.1335260271752353E-2</v>
       </c>
-      <c r="S33" s="42">
+      <c r="S33" s="40">
         <f t="shared" si="8"/>
         <v>2.552180724718248E-2</v>
       </c>
-      <c r="T33" s="42">
+      <c r="T33" s="40">
         <f>T24/T6</f>
         <v>-2.1515460789451851E-2</v>
       </c>
-      <c r="U33" s="42">
+      <c r="U33" s="40">
         <f>U24/U6</f>
         <v>5.3461802592970245E-2</v>
       </c>
@@ -3017,25 +3044,25 @@
       <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R34" s="42">
+      <c r="R34" s="40">
         <f t="shared" ref="R34:S34" si="9">R23/R22</f>
         <v>0.35267857142857134</v>
       </c>
-      <c r="S34" s="42">
+      <c r="S34" s="40">
         <f t="shared" si="9"/>
         <v>0.2961672473867597</v>
       </c>
-      <c r="T34" s="42">
+      <c r="T34" s="40">
         <f>T23/T22</f>
         <v>10.176470588235055</v>
       </c>
-      <c r="U34" s="42">
+      <c r="U34" s="40">
         <f>U23/U22</f>
         <v>0.2345053635280096</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="36" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3043,16 +3070,16 @@
       <c r="B39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R39" s="41">
+      <c r="R39" s="39">
         <v>823.2</v>
       </c>
-      <c r="S39" s="41">
+      <c r="S39" s="39">
         <v>1347.6</v>
       </c>
-      <c r="T39" s="41">
+      <c r="T39" s="39">
         <v>1164.9000000000001</v>
       </c>
-      <c r="U39" s="41">
+      <c r="U39" s="39">
         <v>1011</v>
       </c>
     </row>
@@ -3060,16 +3087,16 @@
       <c r="B40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R40" s="41">
+      <c r="R40" s="39">
         <v>22.2</v>
       </c>
-      <c r="S40" s="41">
+      <c r="S40" s="39">
         <v>18.899999999999999</v>
       </c>
-      <c r="T40" s="41">
+      <c r="T40" s="39">
         <v>14.1</v>
       </c>
-      <c r="U40" s="41">
+      <c r="U40" s="39">
         <v>89.2</v>
       </c>
     </row>
@@ -3077,16 +3104,16 @@
       <c r="B41" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R41" s="41">
+      <c r="R41" s="39">
         <v>153</v>
       </c>
-      <c r="S41" s="41">
+      <c r="S41" s="39">
         <v>143.4</v>
       </c>
-      <c r="T41" s="41">
+      <c r="T41" s="39">
         <v>120.5</v>
       </c>
-      <c r="U41" s="41">
+      <c r="U41" s="39">
         <v>120.6</v>
       </c>
     </row>
@@ -3094,22 +3121,22 @@
       <c r="B42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="R42" s="40">
+      <c r="D42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="R42" s="38">
         <v>11</v>
       </c>
-      <c r="S42" s="40">
+      <c r="S42" s="38">
         <v>0</v>
       </c>
-      <c r="T42" s="40">
+      <c r="T42" s="38">
         <v>263.3</v>
       </c>
-      <c r="U42" s="40">
+      <c r="U42" s="38">
         <v>206.6</v>
       </c>
     </row>
@@ -3117,16 +3144,16 @@
       <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R43" s="41">
+      <c r="R43" s="39">
         <v>84.6</v>
       </c>
-      <c r="S43" s="41">
+      <c r="S43" s="39">
         <v>83.8</v>
       </c>
-      <c r="T43" s="41">
+      <c r="T43" s="39">
         <v>0</v>
       </c>
-      <c r="U43" s="41">
+      <c r="U43" s="39">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3134,16 +3161,16 @@
       <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R44" s="41">
+      <c r="R44" s="39">
         <v>23.7</v>
       </c>
-      <c r="S44" s="41">
+      <c r="S44" s="39">
         <v>49.9</v>
       </c>
-      <c r="T44" s="41">
+      <c r="T44" s="39">
         <v>66.8</v>
       </c>
-      <c r="U44" s="41">
+      <c r="U44" s="39">
         <v>100.8</v>
       </c>
     </row>
@@ -3151,19 +3178,19 @@
       <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R45" s="41">
+      <c r="R45" s="39">
         <f>SUM(R39:R44)</f>
         <v>1117.7</v>
       </c>
-      <c r="S45" s="41">
+      <c r="S45" s="39">
         <f>SUM(S39:S44)</f>
         <v>1643.6000000000001</v>
       </c>
-      <c r="T45" s="41">
+      <c r="T45" s="39">
         <f>SUM(T39:T44)</f>
         <v>1629.6</v>
       </c>
-      <c r="U45" s="41">
+      <c r="U45" s="39">
         <f>SUM(U39:U44)</f>
         <v>1530.3999999999999</v>
       </c>
@@ -3172,22 +3199,22 @@
       <c r="B46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="R46" s="40">
+      <c r="D46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="R46" s="38">
         <v>978.4</v>
       </c>
-      <c r="S46" s="40">
+      <c r="S46" s="38">
         <v>1198.3</v>
       </c>
-      <c r="T46" s="40">
+      <c r="T46" s="38">
         <v>1096.5999999999999</v>
       </c>
-      <c r="U46" s="40">
+      <c r="U46" s="38">
         <v>1277.5999999999999</v>
       </c>
     </row>
@@ -3195,16 +3222,16 @@
       <c r="B47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R47" s="41">
+      <c r="R47" s="39">
         <v>432.5</v>
       </c>
-      <c r="S47" s="41">
+      <c r="S47" s="39">
         <v>414.2</v>
       </c>
-      <c r="T47" s="41">
+      <c r="T47" s="39">
         <v>546.5</v>
       </c>
-      <c r="U47" s="41">
+      <c r="U47" s="39">
         <v>841.4</v>
       </c>
     </row>
@@ -3212,22 +3239,22 @@
       <c r="B48" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="R48" s="40">
+      <c r="D48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="R48" s="38">
         <v>104.2</v>
       </c>
-      <c r="S48" s="40">
+      <c r="S48" s="38">
         <v>78.099999999999994</v>
       </c>
-      <c r="T48" s="40">
+      <c r="T48" s="38">
         <v>55.4</v>
       </c>
-      <c r="U48" s="40">
+      <c r="U48" s="38">
         <v>116.5</v>
       </c>
     </row>
@@ -3235,22 +3262,22 @@
       <c r="B49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="R49" s="40">
+      <c r="D49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="R49" s="38">
         <v>448</v>
       </c>
-      <c r="S49" s="40">
+      <c r="S49" s="38">
         <v>534</v>
       </c>
-      <c r="T49" s="40">
+      <c r="T49" s="38">
         <v>457</v>
       </c>
-      <c r="U49" s="40">
+      <c r="U49" s="38">
         <v>336.8</v>
       </c>
     </row>
@@ -3258,16 +3285,16 @@
       <c r="B50" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R50" s="41">
+      <c r="R50" s="39">
         <v>68</v>
       </c>
-      <c r="S50" s="41">
+      <c r="S50" s="39">
         <v>0</v>
       </c>
-      <c r="T50" s="41">
+      <c r="T50" s="39">
         <v>0</v>
       </c>
-      <c r="U50" s="41">
+      <c r="U50" s="39">
         <v>40</v>
       </c>
     </row>
@@ -3275,40 +3302,40 @@
       <c r="B51" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R51" s="41">
+      <c r="R51" s="39">
         <f t="shared" ref="R51:S51" si="10">R45+SUM(R46:R50)</f>
         <v>3148.8</v>
       </c>
-      <c r="S51" s="41">
+      <c r="S51" s="39">
         <f t="shared" si="10"/>
         <v>3868.2</v>
       </c>
-      <c r="T51" s="41">
+      <c r="T51" s="39">
         <f>T45+SUM(T46:T50)</f>
         <v>3785.1</v>
       </c>
-      <c r="U51" s="41">
+      <c r="U51" s="39">
         <f>U45+SUM(U46:U50)</f>
         <v>4142.7</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="U52" s="41"/>
+      <c r="U52" s="39"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R53" s="41">
+      <c r="R53" s="39">
         <v>0</v>
       </c>
-      <c r="S53" s="41">
+      <c r="S53" s="39">
         <v>476.2</v>
       </c>
       <c r="T53" s="1">
         <v>534.20000000000005</v>
       </c>
-      <c r="U53" s="41">
+      <c r="U53" s="39">
         <v>503.6</v>
       </c>
     </row>
@@ -3316,22 +3343,22 @@
       <c r="B54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="R54" s="40">
+      <c r="D54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="R54" s="38">
         <v>826.5</v>
       </c>
-      <c r="S54" s="40">
+      <c r="S54" s="38">
         <v>900</v>
       </c>
       <c r="T54" s="3">
         <v>705.9</v>
       </c>
-      <c r="U54" s="40">
+      <c r="U54" s="38">
         <v>827.9</v>
       </c>
     </row>
@@ -3339,16 +3366,16 @@
       <c r="B55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R55" s="41">
+      <c r="R55" s="39">
         <v>1.9</v>
       </c>
-      <c r="S55" s="41">
+      <c r="S55" s="39">
         <v>1.9</v>
       </c>
       <c r="T55" s="1">
         <v>1.9</v>
       </c>
-      <c r="U55" s="41">
+      <c r="U55" s="39">
         <v>1.6</v>
       </c>
     </row>
@@ -3356,16 +3383,16 @@
       <c r="B56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R56" s="41">
+      <c r="R56" s="39">
         <v>29</v>
       </c>
-      <c r="S56" s="41">
+      <c r="S56" s="39">
         <v>25.6</v>
       </c>
       <c r="T56" s="1">
         <v>27</v>
       </c>
-      <c r="U56" s="41">
+      <c r="U56" s="39">
         <v>40.4</v>
       </c>
     </row>
@@ -3373,16 +3400,16 @@
       <c r="B57" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R57" s="41">
+      <c r="R57" s="39">
         <v>440.5</v>
       </c>
-      <c r="S57" s="41">
+      <c r="S57" s="39">
         <v>336</v>
       </c>
       <c r="T57" s="1">
         <v>361.2</v>
       </c>
-      <c r="U57" s="41">
+      <c r="U57" s="39">
         <v>433</v>
       </c>
     </row>
@@ -3390,19 +3417,19 @@
       <c r="B58" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="R58" s="41">
+      <c r="R58" s="39">
         <f>SUM(R53:R57)</f>
         <v>1297.9000000000001</v>
       </c>
-      <c r="S58" s="41">
+      <c r="S58" s="39">
         <f>SUM(S53:S57)</f>
         <v>1739.7</v>
       </c>
-      <c r="T58" s="41">
+      <c r="T58" s="39">
         <f>SUM(T53:T57)</f>
         <v>1630.2</v>
       </c>
-      <c r="U58" s="41">
+      <c r="U58" s="39">
         <f>SUM(U53:U57)</f>
         <v>1806.5</v>
       </c>
@@ -3411,22 +3438,22 @@
       <c r="B59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="R59" s="40">
+      <c r="D59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="R59" s="38">
         <v>16.3</v>
       </c>
-      <c r="S59" s="40">
+      <c r="S59" s="38">
         <v>44.2</v>
       </c>
       <c r="T59" s="3">
         <v>19.2</v>
       </c>
-      <c r="U59" s="40">
+      <c r="U59" s="38">
         <v>107.2</v>
       </c>
     </row>
@@ -3434,16 +3461,16 @@
       <c r="B60" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R60" s="41">
+      <c r="R60" s="39">
         <v>541.1</v>
       </c>
-      <c r="S60" s="41">
+      <c r="S60" s="39">
         <v>602.5</v>
       </c>
       <c r="T60" s="1">
         <v>646.29999999999995</v>
       </c>
-      <c r="U60" s="41">
+      <c r="U60" s="39">
         <v>729.8</v>
       </c>
     </row>
@@ -3451,16 +3478,16 @@
       <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R61" s="41">
+      <c r="R61" s="39">
         <v>0</v>
       </c>
-      <c r="S61" s="41">
+      <c r="S61" s="39">
         <v>147.9</v>
       </c>
       <c r="T61" s="1">
         <v>188.5</v>
       </c>
-      <c r="U61" s="41">
+      <c r="U61" s="39">
         <v>117</v>
       </c>
     </row>
@@ -3468,16 +3495,16 @@
       <c r="B62" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R62" s="41">
+      <c r="R62" s="39">
         <v>41.1</v>
       </c>
-      <c r="S62" s="41">
+      <c r="S62" s="39">
         <v>53.6</v>
       </c>
       <c r="T62" s="1">
         <v>89.9</v>
       </c>
-      <c r="U62" s="41">
+      <c r="U62" s="39">
         <v>50.9</v>
       </c>
     </row>
@@ -3485,16 +3512,16 @@
       <c r="B63" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R63" s="41">
+      <c r="R63" s="39">
         <v>0</v>
       </c>
-      <c r="S63" s="41">
+      <c r="S63" s="39">
         <v>0</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
       </c>
-      <c r="U63" s="41">
+      <c r="U63" s="39">
         <v>22.7</v>
       </c>
     </row>
@@ -3502,19 +3529,19 @@
       <c r="B64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R64" s="41">
+      <c r="R64" s="39">
         <f t="shared" ref="R64:S64" si="11">R58+SUM(R59:R63)</f>
         <v>1896.4</v>
       </c>
-      <c r="S64" s="41">
+      <c r="S64" s="39">
         <f t="shared" si="11"/>
         <v>2587.9</v>
       </c>
-      <c r="T64" s="41">
+      <c r="T64" s="39">
         <f>T58+SUM(T59:T63)</f>
         <v>2574.1</v>
       </c>
-      <c r="U64" s="41">
+      <c r="U64" s="39">
         <f>U58+SUM(U59:U63)</f>
         <v>2834.1</v>
       </c>
@@ -3523,16 +3550,16 @@
       <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="R66" s="41">
+      <c r="R66" s="39">
         <v>1252.4000000000001</v>
       </c>
-      <c r="S66" s="41">
+      <c r="S66" s="39">
         <v>1280.3</v>
       </c>
-      <c r="T66" s="41">
+      <c r="T66" s="39">
         <v>1211</v>
       </c>
-      <c r="U66" s="41">
+      <c r="U66" s="39">
         <v>1308.5999999999999</v>
       </c>
     </row>
@@ -3540,19 +3567,19 @@
       <c r="B67" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R67" s="41">
+      <c r="R67" s="39">
         <f t="shared" ref="R67:S67" si="12">R66+R64</f>
         <v>3148.8</v>
       </c>
-      <c r="S67" s="41">
+      <c r="S67" s="39">
         <f t="shared" si="12"/>
         <v>3868.2</v>
       </c>
-      <c r="T67" s="41">
+      <c r="T67" s="39">
         <f>T66+T64</f>
         <v>3785.1</v>
       </c>
-      <c r="U67" s="41">
+      <c r="U67" s="39">
         <f>U66+U64</f>
         <v>4142.7</v>
       </c>
@@ -3561,19 +3588,19 @@
       <c r="B69" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="R69" s="41">
+      <c r="R69" s="39">
         <f t="shared" ref="R69:S69" si="13">R51-R64</f>
         <v>1252.4000000000001</v>
       </c>
-      <c r="S69" s="41">
+      <c r="S69" s="39">
         <f t="shared" si="13"/>
         <v>1280.2999999999997</v>
       </c>
-      <c r="T69" s="41">
+      <c r="T69" s="39">
         <f t="shared" ref="T69" si="14">T51-T64</f>
         <v>1211</v>
       </c>
-      <c r="U69" s="41">
+      <c r="U69" s="39">
         <f>U51-U64</f>
         <v>1308.5999999999999</v>
       </c>
@@ -3599,56 +3626,56 @@
         <v>2.772602824569105</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="34" t="s">
+    <row r="72" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="R72" s="34">
+      <c r="D72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="R72" s="32">
         <f t="shared" ref="R72:S72" si="18">R48+R49+R42</f>
         <v>563.20000000000005</v>
       </c>
-      <c r="S72" s="34">
+      <c r="S72" s="32">
         <f t="shared" si="18"/>
         <v>612.1</v>
       </c>
-      <c r="T72" s="34">
+      <c r="T72" s="32">
         <f t="shared" ref="T72" si="19">T48+T49+T42</f>
         <v>775.7</v>
       </c>
-      <c r="U72" s="34">
+      <c r="U72" s="32">
         <f>U48+U49+U42</f>
         <v>659.9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="34" t="s">
+    <row r="73" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="R73" s="34">
+      <c r="D73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="R73" s="32">
         <f t="shared" ref="R73:S73" si="20">R54+R59</f>
         <v>842.8</v>
       </c>
-      <c r="S73" s="34">
+      <c r="S73" s="32">
         <f t="shared" si="20"/>
         <v>944.2</v>
       </c>
-      <c r="T73" s="34">
+      <c r="T73" s="32">
         <f t="shared" ref="T73" si="21">T54+T59</f>
         <v>725.1</v>
       </c>
-      <c r="U73" s="34">
+      <c r="U73" s="32">
         <f>U54+U59</f>
         <v>935.1</v>
       </c>
@@ -3678,21 +3705,21 @@
       <c r="B76" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="S76" s="44">
+      <c r="D76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="S76" s="42">
         <f t="shared" ref="S76:T76" si="25">S46/R46-1</f>
         <v>0.2247547015535567</v>
       </c>
-      <c r="T76" s="44">
+      <c r="T76" s="42">
         <f t="shared" si="25"/>
         <v>-8.4870232829842296E-2</v>
       </c>
-      <c r="U76" s="44">
+      <c r="U76" s="42">
         <f>U46/T46-1</f>
         <v>0.16505562648185301</v>
       </c>
@@ -3715,26 +3742,26 @@
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="50">
+      <c r="A78" s="48">
         <f>AVERAGE(R78:U78)</f>
         <v>0.28386373514389107</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R78" s="42">
+      <c r="R78" s="40">
         <f t="shared" ref="R78:T78" si="26">R46/R6</f>
         <v>0.26429671249898701</v>
       </c>
-      <c r="S78" s="42">
+      <c r="S78" s="40">
         <f t="shared" si="26"/>
         <v>0.30279981806236417</v>
       </c>
-      <c r="T78" s="42">
+      <c r="T78" s="40">
         <f t="shared" si="26"/>
         <v>0.30248531156042252</v>
       </c>
-      <c r="U78" s="42">
+      <c r="U78" s="40">
         <f>U46/U6</f>
         <v>0.26587309845379059</v>
       </c>
@@ -3743,13 +3770,13 @@
       <c r="B80" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="R80" s="52">
+      <c r="R80" s="50">
         <v>2.9780000000000002</v>
       </c>
-      <c r="S80" s="52">
+      <c r="S80" s="50">
         <v>2.6</v>
       </c>
-      <c r="T80" s="52">
+      <c r="T80" s="50">
         <v>5.1550000000000002</v>
       </c>
       <c r="U80" s="1">
@@ -3760,19 +3787,19 @@
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R81" s="41">
+      <c r="R81" s="39">
         <f t="shared" ref="R81:T81" si="27">R80*R26</f>
         <v>1546.9767046080001</v>
       </c>
-      <c r="S81" s="41">
+      <c r="S81" s="39">
         <f t="shared" si="27"/>
         <v>1315.1499140000001</v>
       </c>
-      <c r="T81" s="41">
+      <c r="T81" s="39">
         <f t="shared" si="27"/>
         <v>2587.5794735550003</v>
       </c>
-      <c r="U81" s="41">
+      <c r="U81" s="39">
         <f>U80*U26</f>
         <v>3204.71216478</v>
       </c>
@@ -3781,116 +3808,116 @@
       <c r="B82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R82" s="41">
+      <c r="R82" s="39">
         <f t="shared" ref="R82:T82" si="28">R81-R74</f>
         <v>1826.576704608</v>
       </c>
-      <c r="S82" s="41">
+      <c r="S82" s="39">
         <f t="shared" si="28"/>
         <v>1647.249914</v>
       </c>
-      <c r="T82" s="41">
+      <c r="T82" s="39">
         <f t="shared" si="28"/>
         <v>2536.9794735550004</v>
       </c>
-      <c r="U82" s="41">
+      <c r="U82" s="39">
         <f>U81-U74</f>
         <v>3479.9121647800002</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A84" s="51">
+      <c r="A84" s="49">
         <f>AVERAGE(R84:U84)</f>
         <v>1.7120304481761268</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R84" s="49">
+      <c r="R84" s="47">
         <f t="shared" ref="R84:T84" si="29">R80/R70</f>
         <v>1.2352097609453849</v>
       </c>
-      <c r="S84" s="49">
+      <c r="S84" s="47">
         <f t="shared" si="29"/>
         <v>1.0272201155979068</v>
       </c>
-      <c r="T84" s="49">
+      <c r="T84" s="47">
         <f t="shared" si="29"/>
         <v>2.136729540507845</v>
       </c>
-      <c r="U84" s="49">
+      <c r="U84" s="47">
         <f>U80/U70</f>
         <v>2.4489623756533705</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A85" s="51">
+      <c r="A85" s="49">
         <f>AVERAGE(R85:U85)</f>
         <v>0.53272048080151513</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R85" s="49">
+      <c r="R85" s="47">
         <f t="shared" ref="R85:T85" si="30">R81/R6</f>
         <v>0.4178872213209433</v>
       </c>
-      <c r="S85" s="49">
+      <c r="S85" s="47">
         <f t="shared" si="30"/>
         <v>0.33232675847778848</v>
       </c>
-      <c r="T85" s="49">
+      <c r="T85" s="47">
         <f t="shared" si="30"/>
         <v>0.71375595772901557</v>
       </c>
-      <c r="U85" s="49">
+      <c r="U85" s="47">
         <f>U81/U6</f>
         <v>0.66691198567831345</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A86" s="51">
+      <c r="A86" s="49">
         <f>AVERAGE(R86:U86)</f>
         <v>0.58341051806433109</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R86" s="49">
+      <c r="R86" s="47">
         <f t="shared" ref="R86:T86" si="31">R82/R6</f>
         <v>0.49341600383802908</v>
       </c>
-      <c r="S86" s="49">
+      <c r="S86" s="47">
         <f t="shared" si="31"/>
         <v>0.41624549300045482</v>
       </c>
-      <c r="T86" s="49">
+      <c r="T86" s="47">
         <f t="shared" si="31"/>
         <v>0.69979849213996093</v>
       </c>
-      <c r="U86" s="49">
+      <c r="U86" s="47">
         <f>U82/U6</f>
         <v>0.72418208327887956</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A87" s="51">
+      <c r="A87" s="49">
         <f>AVERAGE(R87:U87)</f>
         <v>12.943947800523622</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R87" s="49">
+      <c r="R87" s="47">
         <f t="shared" ref="R87:S87" si="32">R80/R25</f>
         <v>13.336006074206892</v>
       </c>
-      <c r="S87" s="49">
+      <c r="S87" s="47">
         <f t="shared" si="32"/>
         <v>13.02128627722773</v>
       </c>
-      <c r="T87" s="49"/>
-      <c r="U87" s="49">
+      <c r="T87" s="47"/>
+      <c r="U87" s="47">
         <f>U80/U25</f>
         <v>12.474551050136244</v>
       </c>
@@ -3901,26 +3928,26 @@
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A89" s="50">
+      <c r="A89" s="48">
         <f>AVERAGE(R89:U89)</f>
         <v>7.0229795347548835E-2</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R89" s="42">
-        <f t="shared" ref="R89:U89" si="33">R15/(R51-R58)</f>
+      <c r="R89" s="40">
+        <f t="shared" ref="R89:T89" si="33">R15/(R51-R58)</f>
         <v>8.6714571289642897E-2</v>
       </c>
-      <c r="S89" s="42">
+      <c r="S89" s="40">
         <f t="shared" si="33"/>
         <v>8.0761099365750516E-2</v>
       </c>
-      <c r="T89" s="42">
+      <c r="T89" s="40">
         <f t="shared" si="33"/>
         <v>-2.7982737017958982E-2</v>
       </c>
-      <c r="U89" s="42">
+      <c r="U89" s="40">
         <f>U15/(U51-U58)</f>
         <v>0.14142624775276086</v>
       </c>

--- a/£FRAS.xlsx
+++ b/£FRAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27A641C-5FC0-4B9E-B592-31851E442A42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F103E4FE-B69C-4F63-ABC1-E4CF9096012F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="30375" windowHeight="18900" xr2:uid="{DFC76227-194F-45DA-B2FC-C5CD2E3C1320}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="149">
   <si>
     <t>£FRAS</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>The put option, which gives Ashley the right to sell Frasers shares at that price, expires in September of next year</t>
+  </si>
+  <si>
+    <t>Superdry?</t>
+  </si>
+  <si>
+    <t>Hornby?</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +560,20 @@
       <i/>
       <sz val="10"/>
       <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -689,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -790,18 +810,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,52 +877,8 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1346,7 +1368,7 @@
   <dimension ref="A2:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,35 +1388,35 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="G5" s="61" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="G5" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="63"/>
-      <c r="W5" s="61" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="59"/>
+      <c r="W5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="63"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="59"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -1440,10 +1462,10 @@
       <c r="D7" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="54">
         <v>44896</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="56" t="s">
         <v>144</v>
       </c>
       <c r="I7" s="16"/>
@@ -1458,12 +1480,12 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="17"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="70"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="62"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
@@ -1475,7 +1497,7 @@
       </c>
       <c r="D8" s="29"/>
       <c r="G8" s="53"/>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="55" t="s">
         <v>145</v>
       </c>
       <c r="I8" s="16"/>
@@ -1511,7 +1533,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="53"/>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="55" t="s">
         <v>146</v>
       </c>
       <c r="I9" s="16"/>
@@ -1684,11 +1706,11 @@
       <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
       <c r="G15" s="53"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -1719,10 +1741,10 @@
       <c r="B16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="64"/>
       <c r="G16" s="53"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -1750,10 +1772,10 @@
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="64"/>
       <c r="G17" s="53"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -1779,10 +1801,10 @@
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="64"/>
       <c r="G18" s="53"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -1808,10 +1830,10 @@
       <c r="B19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="69"/>
       <c r="G19" s="53"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -1848,14 +1870,14 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="17"/>
-      <c r="W20" s="71" t="s">
+      <c r="W20" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="73"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="67"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="G21" s="53"/>
@@ -1878,15 +1900,17 @@
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
+      <c r="AA21" s="78" t="s">
+        <v>148</v>
+      </c>
       <c r="AB21" s="17"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
       <c r="G22" s="53"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -1914,10 +1938,10 @@
       <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="64"/>
       <c r="G23" s="53"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -1945,10 +1969,10 @@
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="63">
         <v>1982</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="64"/>
       <c r="G24" s="53"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -1974,8 +1998,8 @@
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" s="22"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
       <c r="G25" s="53"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -2001,8 +2025,8 @@
       <c r="B26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
       <c r="G26" s="53"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -2017,7 +2041,9 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="17"/>
-      <c r="W26" s="15"/>
+      <c r="W26" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
@@ -2028,11 +2054,11 @@
       <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="70">
         <f>'Financial Model'!U46</f>
         <v>1277.5999999999999</v>
       </c>
-      <c r="D27" s="65"/>
+      <c r="D27" s="71"/>
       <c r="G27" s="53"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -2050,8 +2076,8 @@
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
       <c r="G28" s="53"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -2096,10 +2122,10 @@
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="67"/>
+      <c r="D30" s="73"/>
       <c r="G30" s="53"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -2148,11 +2174,11 @@
       <c r="T32" s="17"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
       <c r="G33" s="53"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -2172,11 +2198,11 @@
       <c r="B34" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="74">
         <f>C8/'Financial Model'!U6</f>
         <v>0.8083484009031694</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="75"/>
       <c r="G34" s="53"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -2196,11 +2222,11 @@
       <c r="B35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="74">
         <f>C6/'Financial Model'!U25</f>
         <v>15.120111213935388</v>
       </c>
-      <c r="D35" s="59"/>
+      <c r="D35" s="75"/>
       <c r="G35" s="53"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -2220,11 +2246,11 @@
       <c r="B36" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="74">
         <f>C12/'Financial Model'!U6</f>
         <v>0.8656184985037354</v>
       </c>
-      <c r="D36" s="59"/>
+      <c r="D36" s="75"/>
       <c r="G36" s="10"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -2244,45 +2270,62 @@
       <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="74">
         <f>C6/'Financial Model'!U70</f>
         <v>2.9683299486932606</v>
       </c>
-      <c r="D37" s="59"/>
+      <c r="D37" s="75"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="60">
+      <c r="C38" s="76">
         <f>'Financial Model'!U89</f>
         <v>0.14142624775276086</v>
       </c>
-      <c r="D38" s="55"/>
+      <c r="D38" s="64"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="64"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="W5:AB5"/>
     <mergeCell ref="W7:AB7"/>
     <mergeCell ref="C23:D23"/>
@@ -2293,23 +2336,6 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="G5:T5"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{424553EF-2E25-459C-8DED-FBECC4AAF054}"/>
@@ -2326,7 +2352,7 @@
   <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="R89" sqref="R89:U89"/>
